--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1462,7 @@
         <v>210041722003</v>
       </c>
       <c r="G50" s="4">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1854,7 @@
         <v>210041700088</v>
       </c>
       <c r="G78" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="L114" sqref="L114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1476,7 @@
         <v>210041722004</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>210041722005</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
         <v>210041700087</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
         <v>210041700104</v>
       </c>
       <c r="G88" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>210041722035</v>
       </c>
       <c r="G116" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>S.N</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>A1 (50)</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -722,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,6 +806,9 @@
       <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
@@ -817,6 +823,9 @@
       <c r="C4" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
@@ -831,6 +840,9 @@
       <c r="C5" s="6">
         <v>210041700001</v>
       </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
       <c r="G5" s="2">
         <v>50</v>
       </c>
@@ -845,6 +857,9 @@
       <c r="C6" s="6">
         <v>210041700002</v>
       </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
@@ -859,6 +874,9 @@
       <c r="C7" s="6">
         <v>210041700003</v>
       </c>
+      <c r="D7" s="2">
+        <v>11</v>
+      </c>
       <c r="G7" s="2">
         <v>44</v>
       </c>
@@ -873,6 +891,9 @@
       <c r="C8" s="6">
         <v>210041700005</v>
       </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
@@ -887,6 +908,9 @@
       <c r="C9" s="6">
         <v>210041700006</v>
       </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
@@ -901,6 +925,9 @@
       <c r="C10" s="6">
         <v>210041700010</v>
       </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2">
         <v>35</v>
       </c>
@@ -915,6 +942,9 @@
       <c r="C11" s="6">
         <v>210041700011</v>
       </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2">
         <v>49</v>
       </c>
@@ -929,6 +959,9 @@
       <c r="C12" s="6">
         <v>210041700013</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
@@ -943,6 +976,9 @@
       <c r="C13" s="6">
         <v>210041700015</v>
       </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
@@ -957,6 +993,9 @@
       <c r="C14" s="6">
         <v>210041700016</v>
       </c>
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
       <c r="G14" s="2">
         <v>38</v>
       </c>
@@ -971,6 +1010,9 @@
       <c r="C15" s="6">
         <v>210041700017</v>
       </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
@@ -985,6 +1027,9 @@
       <c r="C16" s="6">
         <v>210041700018</v>
       </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
@@ -999,6 +1044,9 @@
       <c r="C17" s="6">
         <v>210041700020</v>
       </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
@@ -1013,6 +1061,9 @@
       <c r="C18" s="6">
         <v>210041700024</v>
       </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
@@ -1027,6 +1078,9 @@
       <c r="C19" s="6">
         <v>210041700025</v>
       </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
       <c r="G19" s="2">
         <v>33</v>
       </c>
@@ -1041,6 +1095,9 @@
       <c r="C20" s="6">
         <v>210041700026</v>
       </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
       <c r="G20" s="2">
         <v>45</v>
       </c>
@@ -1055,6 +1112,9 @@
       <c r="C21" s="6">
         <v>210041700028</v>
       </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
@@ -1069,6 +1129,9 @@
       <c r="C22" s="6">
         <v>210041700029</v>
       </c>
+      <c r="D22" s="2">
+        <v>12</v>
+      </c>
       <c r="G22" s="2">
         <v>38</v>
       </c>
@@ -1083,6 +1146,9 @@
       <c r="C23" s="6">
         <v>210041700030</v>
       </c>
+      <c r="D23" s="2">
+        <v>7</v>
+      </c>
       <c r="G23" s="2">
         <v>44</v>
       </c>
@@ -1097,6 +1163,9 @@
       <c r="C24" s="6">
         <v>210041700032</v>
       </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
@@ -1111,6 +1180,9 @@
       <c r="C25" s="6">
         <v>210041700033</v>
       </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
@@ -1125,6 +1197,9 @@
       <c r="C26" s="6">
         <v>210041700034</v>
       </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
@@ -1139,6 +1214,9 @@
       <c r="C27" s="6">
         <v>210041700035</v>
       </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
@@ -1153,6 +1231,9 @@
       <c r="C28" s="6">
         <v>210041700036</v>
       </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
@@ -1167,6 +1248,9 @@
       <c r="C29" s="6">
         <v>210041700037</v>
       </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
@@ -1181,6 +1265,9 @@
       <c r="C30" s="6">
         <v>210041700038</v>
       </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
@@ -1195,6 +1282,9 @@
       <c r="C31" s="6">
         <v>210041700040</v>
       </c>
+      <c r="D31" s="2">
+        <v>8</v>
+      </c>
       <c r="G31" s="2">
         <v>42</v>
       </c>
@@ -1209,6 +1299,9 @@
       <c r="C32" s="6">
         <v>210041700041</v>
       </c>
+      <c r="D32" s="2">
+        <v>19</v>
+      </c>
       <c r="G32" s="2">
         <v>49</v>
       </c>
@@ -1223,6 +1316,9 @@
       <c r="C33" s="6">
         <v>210041700044</v>
       </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
       <c r="G33" s="2">
         <v>41</v>
       </c>
@@ -1237,6 +1333,9 @@
       <c r="C34" s="6">
         <v>210041700046</v>
       </c>
+      <c r="D34" s="2">
+        <v>6</v>
+      </c>
       <c r="G34" s="2">
         <v>42</v>
       </c>
@@ -1251,6 +1350,9 @@
       <c r="C35" s="6">
         <v>210041700049</v>
       </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
       <c r="G35" s="2">
         <v>33</v>
       </c>
@@ -1265,6 +1367,9 @@
       <c r="C36" s="6">
         <v>210041700050</v>
       </c>
+      <c r="D36" s="2">
+        <v>7</v>
+      </c>
       <c r="G36" s="2">
         <v>41</v>
       </c>
@@ -1279,6 +1384,9 @@
       <c r="C37" s="6">
         <v>210041700051</v>
       </c>
+      <c r="D37" s="2">
+        <v>12</v>
+      </c>
       <c r="G37" s="2">
         <v>43</v>
       </c>
@@ -1293,6 +1401,9 @@
       <c r="C38" s="6">
         <v>210041700052</v>
       </c>
+      <c r="D38" s="2">
+        <v>11</v>
+      </c>
       <c r="G38" s="2">
         <v>48</v>
       </c>
@@ -1307,6 +1418,9 @@
       <c r="C39" s="6">
         <v>210041700053</v>
       </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
@@ -1321,6 +1435,9 @@
       <c r="C40" s="6">
         <v>210041700055</v>
       </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
       <c r="G40" s="2">
         <v>48</v>
       </c>
@@ -1335,6 +1452,9 @@
       <c r="C41" s="6">
         <v>210041700056</v>
       </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
       <c r="G41" s="2">
         <v>41</v>
       </c>
@@ -1349,6 +1469,9 @@
       <c r="C42" s="6">
         <v>210041700057</v>
       </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
       <c r="G42" s="2">
         <v>46</v>
       </c>
@@ -1363,6 +1486,9 @@
       <c r="C43" s="6">
         <v>210041700058</v>
       </c>
+      <c r="D43" s="2">
+        <v>6</v>
+      </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
@@ -1377,6 +1503,9 @@
       <c r="C44" s="6">
         <v>210041700059</v>
       </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
       <c r="G44" s="2">
         <v>0</v>
       </c>
@@ -1391,6 +1520,9 @@
       <c r="C45" s="6">
         <v>210041700060</v>
       </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
@@ -1405,6 +1537,9 @@
       <c r="C46" s="6">
         <v>210041700061</v>
       </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
@@ -1419,6 +1554,9 @@
       <c r="C47" s="6">
         <v>210041700062</v>
       </c>
+      <c r="D47" s="2">
+        <v>12</v>
+      </c>
       <c r="G47" s="2">
         <v>34</v>
       </c>
@@ -1433,6 +1571,9 @@
       <c r="C48" s="6">
         <v>210041700063</v>
       </c>
+      <c r="D48" s="2">
+        <v>9</v>
+      </c>
       <c r="G48" s="2">
         <v>45</v>
       </c>
@@ -1447,6 +1588,9 @@
       <c r="C49" s="6">
         <v>210041722001</v>
       </c>
+      <c r="D49" s="4">
+        <v>9</v>
+      </c>
       <c r="G49" s="4">
         <v>0</v>
       </c>
@@ -1461,6 +1605,9 @@
       <c r="C50" s="6">
         <v>210041722003</v>
       </c>
+      <c r="D50" s="4">
+        <v>4</v>
+      </c>
       <c r="G50" s="4">
         <v>43</v>
       </c>
@@ -1475,6 +1622,9 @@
       <c r="C51" s="7">
         <v>210041722004</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G51" s="2">
         <v>49</v>
       </c>
@@ -1489,6 +1639,9 @@
       <c r="C52" s="7">
         <v>210041722005</v>
       </c>
+      <c r="D52" s="2">
+        <v>5</v>
+      </c>
       <c r="G52" s="2">
         <v>43</v>
       </c>
@@ -1503,6 +1656,9 @@
       <c r="C53" s="7">
         <v>210041722007</v>
       </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
@@ -1517,6 +1673,9 @@
       <c r="C54" s="7">
         <v>210041722008</v>
       </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
       <c r="G54" s="2">
         <v>0</v>
       </c>
@@ -1531,6 +1690,9 @@
       <c r="C55" s="7">
         <v>210041722010</v>
       </c>
+      <c r="D55" s="2">
+        <v>14</v>
+      </c>
       <c r="G55" s="2">
         <v>42</v>
       </c>
@@ -1545,6 +1707,9 @@
       <c r="C56" s="7">
         <v>210041722012</v>
       </c>
+      <c r="D56" s="2">
+        <v>14</v>
+      </c>
       <c r="G56" s="2">
         <v>42</v>
       </c>
@@ -1559,6 +1724,9 @@
       <c r="C57" s="7">
         <v>210041722014</v>
       </c>
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
       <c r="G57" s="2">
         <v>0</v>
       </c>
@@ -1573,6 +1741,9 @@
       <c r="C58" s="7">
         <v>210041722015</v>
       </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
       <c r="G58" s="2">
         <v>0</v>
       </c>
@@ -1587,6 +1758,9 @@
       <c r="C59" s="7">
         <v>210041722016</v>
       </c>
+      <c r="D59" s="2">
+        <v>10</v>
+      </c>
       <c r="G59" s="2">
         <v>43</v>
       </c>
@@ -1601,6 +1775,9 @@
       <c r="C60" s="7">
         <v>210041722017</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
@@ -1614,6 +1791,9 @@
       </c>
       <c r="C61" s="7">
         <v>210041722019</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t>S.N</t>
   </si>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,6 +1809,9 @@
       <c r="C62" s="7">
         <v>210041700012</v>
       </c>
+      <c r="D62" s="2">
+        <v>8</v>
+      </c>
       <c r="G62" s="2">
         <v>0</v>
       </c>
@@ -1823,6 +1826,9 @@
       <c r="C63" s="7">
         <v>210041700064</v>
       </c>
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
       <c r="G63" s="2">
         <v>0</v>
       </c>
@@ -1837,6 +1843,9 @@
       <c r="C64" s="7">
         <v>210041700065</v>
       </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
       <c r="G64" s="2">
         <v>0</v>
       </c>
@@ -1851,6 +1860,9 @@
       <c r="C65" s="7">
         <v>210041700066</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G65" s="2">
         <v>0</v>
       </c>
@@ -1865,6 +1877,9 @@
       <c r="C66" s="7">
         <v>210041700067</v>
       </c>
+      <c r="D66" s="2">
+        <v>11</v>
+      </c>
       <c r="G66" s="2">
         <v>33</v>
       </c>
@@ -1879,6 +1894,9 @@
       <c r="C67" s="7">
         <v>210041700068</v>
       </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
       <c r="G67" s="2">
         <v>0</v>
       </c>
@@ -1893,6 +1911,9 @@
       <c r="C68" s="7">
         <v>210041700069</v>
       </c>
+      <c r="D68" s="2">
+        <v>10</v>
+      </c>
       <c r="G68" s="2">
         <v>28</v>
       </c>
@@ -1907,6 +1928,9 @@
       <c r="C69" s="7">
         <v>210041700071</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G69" s="2">
         <v>36</v>
       </c>
@@ -1921,6 +1945,9 @@
       <c r="C70" s="7">
         <v>210041700073</v>
       </c>
+      <c r="D70" s="2">
+        <v>7</v>
+      </c>
       <c r="G70" s="2">
         <v>0</v>
       </c>
@@ -1935,6 +1962,9 @@
       <c r="C71" s="7">
         <v>210041700076</v>
       </c>
+      <c r="D71" s="2">
+        <v>13</v>
+      </c>
       <c r="G71" s="2">
         <v>0</v>
       </c>
@@ -1949,6 +1979,9 @@
       <c r="C72" s="7">
         <v>210041700081</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G72" s="2">
         <v>0</v>
       </c>
@@ -1963,6 +1996,9 @@
       <c r="C73" s="7">
         <v>210041700082</v>
       </c>
+      <c r="D73" s="2">
+        <v>9</v>
+      </c>
       <c r="G73" s="2">
         <v>33</v>
       </c>
@@ -1977,6 +2013,9 @@
       <c r="C74" s="7">
         <v>210041700083</v>
       </c>
+      <c r="D74" s="2">
+        <v>7</v>
+      </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
@@ -1991,6 +2030,9 @@
       <c r="C75" s="7">
         <v>210041700084</v>
       </c>
+      <c r="D75" s="2">
+        <v>18</v>
+      </c>
       <c r="G75" s="2">
         <v>41</v>
       </c>
@@ -2005,6 +2047,9 @@
       <c r="C76" s="7">
         <v>210041700085</v>
       </c>
+      <c r="D76" s="2">
+        <v>4</v>
+      </c>
       <c r="G76" s="2">
         <v>34</v>
       </c>
@@ -2019,6 +2064,9 @@
       <c r="C77" s="7">
         <v>210041700087</v>
       </c>
+      <c r="D77" s="2">
+        <v>7</v>
+      </c>
       <c r="G77" s="2">
         <v>37</v>
       </c>
@@ -2033,6 +2081,9 @@
       <c r="C78" s="7">
         <v>210041700088</v>
       </c>
+      <c r="D78" s="2">
+        <v>3</v>
+      </c>
       <c r="G78" s="2">
         <v>33</v>
       </c>
@@ -2047,6 +2098,9 @@
       <c r="C79" s="7">
         <v>210041700090</v>
       </c>
+      <c r="D79" s="2">
+        <v>7</v>
+      </c>
       <c r="G79" s="2">
         <v>0</v>
       </c>
@@ -2061,6 +2115,9 @@
       <c r="C80" s="7">
         <v>210041700091</v>
       </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
       <c r="G80" s="2">
         <v>0</v>
       </c>
@@ -2075,6 +2132,9 @@
       <c r="C81" s="7">
         <v>210041700092</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G81" s="2">
         <v>0</v>
       </c>
@@ -2089,6 +2149,9 @@
       <c r="C82" s="7">
         <v>210041700094</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G82" s="2">
         <v>36</v>
       </c>
@@ -2103,6 +2166,9 @@
       <c r="C83" s="7">
         <v>210041700095</v>
       </c>
+      <c r="D83" s="2">
+        <v>7</v>
+      </c>
       <c r="G83" s="2">
         <v>0</v>
       </c>
@@ -2117,6 +2183,9 @@
       <c r="C84" s="7">
         <v>210041700097</v>
       </c>
+      <c r="D84" s="2">
+        <v>18</v>
+      </c>
       <c r="G84" s="2">
         <v>41</v>
       </c>
@@ -2131,6 +2200,9 @@
       <c r="C85" s="7">
         <v>210041700098</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
@@ -2145,6 +2217,9 @@
       <c r="C86" s="7">
         <v>210041700102</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G86" s="2">
         <v>33</v>
       </c>
@@ -2159,6 +2234,9 @@
       <c r="C87" s="7">
         <v>210041700103</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G87" s="2">
         <v>0</v>
       </c>
@@ -2173,6 +2251,9 @@
       <c r="C88" s="6">
         <v>210041700104</v>
       </c>
+      <c r="D88" s="2">
+        <v>5</v>
+      </c>
       <c r="G88" s="2">
         <v>33</v>
       </c>
@@ -2187,6 +2268,9 @@
       <c r="C89" s="6">
         <v>210041700105</v>
       </c>
+      <c r="D89" s="2">
+        <v>11</v>
+      </c>
       <c r="G89" s="2">
         <v>0</v>
       </c>
@@ -2201,6 +2285,9 @@
       <c r="C90" s="6">
         <v>210041700106</v>
       </c>
+      <c r="D90" s="2">
+        <v>4</v>
+      </c>
       <c r="G90" s="2">
         <v>0</v>
       </c>
@@ -2215,6 +2302,9 @@
       <c r="C91" s="6">
         <v>210041700108</v>
       </c>
+      <c r="D91" s="2">
+        <v>3</v>
+      </c>
       <c r="G91" s="2">
         <v>0</v>
       </c>
@@ -2229,6 +2319,9 @@
       <c r="C92" s="6">
         <v>210041700109</v>
       </c>
+      <c r="D92" s="2">
+        <v>11</v>
+      </c>
       <c r="G92" s="2">
         <v>33</v>
       </c>
@@ -2243,6 +2336,9 @@
       <c r="C93" s="6">
         <v>210041700112</v>
       </c>
+      <c r="D93" s="2">
+        <v>8</v>
+      </c>
       <c r="G93" s="2">
         <v>0</v>
       </c>
@@ -2257,6 +2353,9 @@
       <c r="C94" s="6">
         <v>210041700113</v>
       </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
       <c r="G94" s="2">
         <v>0</v>
       </c>
@@ -2271,6 +2370,9 @@
       <c r="C95" s="6">
         <v>210041700114</v>
       </c>
+      <c r="D95" s="2">
+        <v>7</v>
+      </c>
       <c r="G95" s="2">
         <v>41</v>
       </c>
@@ -2285,6 +2387,9 @@
       <c r="C96" s="6">
         <v>210041700116</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G96" s="2">
         <v>0</v>
       </c>
@@ -2299,6 +2404,9 @@
       <c r="C97" s="6">
         <v>210041700117</v>
       </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
       <c r="G97" s="2">
         <v>0</v>
       </c>
@@ -2313,6 +2421,9 @@
       <c r="C98" s="6">
         <v>210041700119</v>
       </c>
+      <c r="D98" s="2">
+        <v>4</v>
+      </c>
       <c r="G98" s="2">
         <v>37</v>
       </c>
@@ -2327,6 +2438,9 @@
       <c r="C99" s="6">
         <v>210041700120</v>
       </c>
+      <c r="D99" s="2">
+        <v>10</v>
+      </c>
       <c r="G99" s="2">
         <v>43</v>
       </c>
@@ -2341,6 +2455,9 @@
       <c r="C100" s="6">
         <v>210041700122</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G100" s="2">
         <v>0</v>
       </c>
@@ -2355,6 +2472,9 @@
       <c r="C101" s="6">
         <v>210041700123</v>
       </c>
+      <c r="D101" s="2">
+        <v>3</v>
+      </c>
       <c r="G101" s="2">
         <v>0</v>
       </c>
@@ -2369,6 +2489,9 @@
       <c r="C102" s="6">
         <v>210041700126</v>
       </c>
+      <c r="D102" s="2">
+        <v>6</v>
+      </c>
       <c r="G102" s="2">
         <v>0</v>
       </c>
@@ -2383,6 +2506,9 @@
       <c r="C103" s="6">
         <v>210041700128</v>
       </c>
+      <c r="D103" s="2">
+        <v>13</v>
+      </c>
       <c r="G103" s="2">
         <v>41</v>
       </c>
@@ -2397,6 +2523,9 @@
       <c r="C104" s="6">
         <v>210041722020</v>
       </c>
+      <c r="D104" s="2">
+        <v>21</v>
+      </c>
       <c r="G104" s="2">
         <v>40</v>
       </c>
@@ -2411,6 +2540,9 @@
       <c r="C105" s="6">
         <v>210041722021</v>
       </c>
+      <c r="D105" s="2">
+        <v>15</v>
+      </c>
       <c r="G105" s="2">
         <v>26</v>
       </c>
@@ -2425,6 +2557,9 @@
       <c r="C106" s="6">
         <v>210041722022</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G106" s="2">
         <v>0</v>
       </c>
@@ -2439,6 +2574,9 @@
       <c r="C107" s="6">
         <v>210041722023</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G107" s="2">
         <v>0</v>
       </c>
@@ -2453,6 +2591,9 @@
       <c r="C108" s="6">
         <v>210041722024</v>
       </c>
+      <c r="D108" s="2">
+        <v>15</v>
+      </c>
       <c r="G108" s="2">
         <v>33</v>
       </c>
@@ -2467,6 +2608,9 @@
       <c r="C109" s="6">
         <v>210041722025</v>
       </c>
+      <c r="D109" s="2">
+        <v>19</v>
+      </c>
       <c r="G109" s="2">
         <v>40</v>
       </c>
@@ -2481,6 +2625,9 @@
       <c r="C110" s="6">
         <v>210041722026</v>
       </c>
+      <c r="D110" s="2">
+        <v>2</v>
+      </c>
       <c r="G110" s="2">
         <v>0</v>
       </c>
@@ -2495,6 +2642,9 @@
       <c r="C111" s="6">
         <v>210041722027</v>
       </c>
+      <c r="D111" s="2">
+        <v>9</v>
+      </c>
       <c r="G111" s="2">
         <v>0</v>
       </c>
@@ -2509,6 +2659,9 @@
       <c r="C112" s="6">
         <v>210041722028</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G112" s="2">
         <v>0</v>
       </c>
@@ -2523,6 +2676,9 @@
       <c r="C113" s="6">
         <v>210041722030</v>
       </c>
+      <c r="D113" s="2">
+        <v>12</v>
+      </c>
       <c r="G113" s="2">
         <v>0</v>
       </c>
@@ -2537,6 +2693,9 @@
       <c r="C114" s="6">
         <v>210041722032</v>
       </c>
+      <c r="D114" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G114" s="2">
         <v>0</v>
       </c>
@@ -2551,6 +2710,9 @@
       <c r="C115" s="6">
         <v>210041722034</v>
       </c>
+      <c r="D115" s="2">
+        <v>4</v>
+      </c>
       <c r="G115" s="2">
         <v>0</v>
       </c>
@@ -2565,6 +2727,9 @@
       <c r="C116" s="6">
         <v>210041722035</v>
       </c>
+      <c r="D116" s="2">
+        <v>16</v>
+      </c>
       <c r="G116" s="2">
         <v>41</v>
       </c>
@@ -2579,6 +2744,9 @@
       <c r="C117" s="6">
         <v>210041722036</v>
       </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
       <c r="G117" s="2">
         <v>0</v>
       </c>
@@ -2593,6 +2761,9 @@
       <c r="C118" s="6">
         <v>210041722037</v>
       </c>
+      <c r="D118" s="2">
+        <v>9</v>
+      </c>
       <c r="G118" s="2">
         <v>0</v>
       </c>
@@ -2606,6 +2777,9 @@
       </c>
       <c r="C119" s="6">
         <v>210041722038</v>
+      </c>
+      <c r="D119" s="2">
+        <v>22</v>
       </c>
       <c r="G119" s="2">
         <v>41</v>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <t>S.N</t>
   </si>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2455,8 +2455,8 @@
       <c r="C100" s="6">
         <v>210041700122</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>114</v>
+      <c r="D100" s="2">
+        <v>2</v>
       </c>
       <c r="G100" s="2">
         <v>0</v>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -33,9 +33,6 @@
     <t xml:space="preserve"> Roll No.</t>
   </si>
   <si>
-    <t>A2 (25)</t>
-  </si>
-  <si>
     <t>A3 (25)</t>
   </si>
   <si>
@@ -367,6 +364,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>A2 (35)</t>
   </si>
 </sst>
 </file>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -769,31 +769,31 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -818,10 +818,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6">
         <v>210041700001</v>
@@ -845,6 +845,9 @@
       </c>
       <c r="G5" s="2">
         <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -852,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6">
         <v>210041700002</v>
@@ -869,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6">
         <v>210041700003</v>
@@ -879,6 +882,9 @@
       </c>
       <c r="G7" s="2">
         <v>44</v>
+      </c>
+      <c r="H7" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -886,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6">
         <v>210041700005</v>
@@ -896,6 +902,9 @@
       </c>
       <c r="G8" s="2">
         <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -903,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6">
         <v>210041700006</v>
@@ -913,6 +922,9 @@
       </c>
       <c r="G9" s="2">
         <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -920,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6">
         <v>210041700010</v>
@@ -929,6 +941,9 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2">
         <v>35</v>
       </c>
     </row>
@@ -937,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6">
         <v>210041700011</v>
@@ -947,6 +962,9 @@
       </c>
       <c r="G11" s="2">
         <v>49</v>
+      </c>
+      <c r="H11" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -954,16 +972,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6">
         <v>210041700013</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -971,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="6">
         <v>210041700015</v>
@@ -981,6 +1002,9 @@
       </c>
       <c r="G13" s="2">
         <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -988,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6">
         <v>210041700016</v>
@@ -998,6 +1022,9 @@
       </c>
       <c r="G14" s="2">
         <v>38</v>
+      </c>
+      <c r="H14" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1005,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6">
         <v>210041700017</v>
@@ -1015,6 +1042,9 @@
       </c>
       <c r="G15" s="2">
         <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1022,7 +1052,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6">
         <v>210041700018</v>
@@ -1034,12 +1064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6">
         <v>210041700020</v>
@@ -1050,13 +1080,16 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6">
         <v>210041700024</v>
@@ -1068,12 +1101,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6">
         <v>210041700025</v>
@@ -1084,13 +1117,16 @@
       <c r="G19" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6">
         <v>210041700026</v>
@@ -1101,13 +1137,16 @@
       <c r="G20" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6">
         <v>210041700028</v>
@@ -1119,12 +1158,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="6">
         <v>210041700029</v>
@@ -1135,13 +1174,16 @@
       <c r="G22" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="6">
         <v>210041700030</v>
@@ -1152,13 +1194,16 @@
       <c r="G23" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6">
         <v>210041700032</v>
@@ -1170,12 +1215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6">
         <v>210041700033</v>
@@ -1187,12 +1232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6">
         <v>210041700034</v>
@@ -1204,12 +1249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6">
         <v>210041700035</v>
@@ -1220,13 +1265,16 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6">
         <v>210041700036</v>
@@ -1237,13 +1285,16 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6">
         <v>210041700037</v>
@@ -1254,13 +1305,16 @@
       <c r="G29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="6">
         <v>210041700038</v>
@@ -1272,12 +1326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6">
         <v>210041700040</v>
@@ -1288,13 +1342,16 @@
       <c r="G31" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="6">
         <v>210041700041</v>
@@ -1305,13 +1362,16 @@
       <c r="G32" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6">
         <v>210041700044</v>
@@ -1322,13 +1382,16 @@
       <c r="G33" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6">
         <v>210041700046</v>
@@ -1339,13 +1402,16 @@
       <c r="G34" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6">
         <v>210041700049</v>
@@ -1356,13 +1422,16 @@
       <c r="G35" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="6">
         <v>210041700050</v>
@@ -1373,13 +1442,16 @@
       <c r="G36" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="6">
         <v>210041700051</v>
@@ -1390,13 +1462,16 @@
       <c r="G37" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="6">
         <v>210041700052</v>
@@ -1407,13 +1482,16 @@
       <c r="G38" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="6">
         <v>210041700053</v>
@@ -1425,12 +1503,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="6">
         <v>210041700055</v>
@@ -1441,13 +1519,16 @@
       <c r="G40" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="6">
         <v>210041700056</v>
@@ -1458,13 +1539,16 @@
       <c r="G41" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="6">
         <v>210041700057</v>
@@ -1476,12 +1560,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="6">
         <v>210041700058</v>
@@ -1492,13 +1576,16 @@
       <c r="G43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="6">
         <v>210041700059</v>
@@ -1510,12 +1597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="6">
         <v>210041700060</v>
@@ -1527,12 +1614,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="6">
         <v>210041700061</v>
@@ -1544,12 +1631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="6">
         <v>210041700062</v>
@@ -1560,13 +1647,16 @@
       <c r="G47" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="6">
         <v>210041700063</v>
@@ -1577,13 +1667,16 @@
       <c r="G48" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="6">
         <v>210041722001</v>
@@ -1595,12 +1688,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="6">
         <v>210041722003</v>
@@ -1611,30 +1704,36 @@
       <c r="G50" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="7">
         <v>210041722004</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G51" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="7">
         <v>210041722005</v>
@@ -1646,12 +1745,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>210041722007</v>
@@ -1663,12 +1762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="7">
         <v>210041722008</v>
@@ -1679,13 +1778,16 @@
       <c r="G54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="7">
         <v>210041722010</v>
@@ -1696,13 +1798,16 @@
       <c r="G55" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="7">
         <v>210041722012</v>
@@ -1713,13 +1818,16 @@
       <c r="G56" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="7">
         <v>210041722014</v>
@@ -1731,12 +1839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="7">
         <v>210041722015</v>
@@ -1747,13 +1855,16 @@
       <c r="G58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="7">
         <v>210041722016</v>
@@ -1764,30 +1875,33 @@
       <c r="G59" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="7">
         <v>210041722017</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="7">
         <v>210041722019</v>
@@ -1798,13 +1912,16 @@
       <c r="G61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62" s="7">
         <v>210041700012</v>
@@ -1816,12 +1933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="7">
         <v>210041700064</v>
@@ -1833,12 +1950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="7">
         <v>210041700065</v>
@@ -1855,13 +1972,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="7">
         <v>210041700066</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
@@ -1872,7 +1989,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="7">
         <v>210041700067</v>
@@ -1889,7 +2006,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="7">
         <v>210041700068</v>
@@ -1906,7 +2023,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="7">
         <v>210041700069</v>
@@ -1923,13 +2040,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="7">
         <v>210041700071</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G69" s="2">
         <v>36</v>
@@ -1940,7 +2057,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="7">
         <v>210041700073</v>
@@ -1957,7 +2074,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="7">
         <v>210041700076</v>
@@ -1974,13 +2091,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="7">
         <v>210041700081</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -1991,7 +2108,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="7">
         <v>210041700082</v>
@@ -2008,7 +2125,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="7">
         <v>210041700083</v>
@@ -2025,7 +2142,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="7">
         <v>210041700084</v>
@@ -2042,7 +2159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="7">
         <v>210041700085</v>
@@ -2059,7 +2176,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="7">
         <v>210041700087</v>
@@ -2076,7 +2193,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="7">
         <v>210041700088</v>
@@ -2093,7 +2210,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" s="7">
         <v>210041700090</v>
@@ -2110,7 +2227,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="7">
         <v>210041700091</v>
@@ -2127,13 +2244,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" s="7">
         <v>210041700092</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -2144,13 +2261,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="7">
         <v>210041700094</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G82" s="2">
         <v>36</v>
@@ -2161,7 +2278,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="7">
         <v>210041700095</v>
@@ -2178,7 +2295,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C84" s="7">
         <v>210041700097</v>
@@ -2195,13 +2312,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" s="7">
         <v>210041700098</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
@@ -2212,13 +2329,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="7">
         <v>210041700102</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G86" s="2">
         <v>33</v>
@@ -2229,13 +2346,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="7">
         <v>210041700103</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
@@ -2246,7 +2363,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="6">
         <v>210041700104</v>
@@ -2263,7 +2380,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="6">
         <v>210041700105</v>
@@ -2280,7 +2397,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" s="6">
         <v>210041700106</v>
@@ -2297,7 +2414,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C91" s="6">
         <v>210041700108</v>
@@ -2314,7 +2431,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" s="6">
         <v>210041700109</v>
@@ -2331,7 +2448,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93" s="6">
         <v>210041700112</v>
@@ -2348,7 +2465,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" s="6">
         <v>210041700113</v>
@@ -2365,7 +2482,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" s="6">
         <v>210041700114</v>
@@ -2382,13 +2499,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" s="6">
         <v>210041700116</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -2399,7 +2516,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="6">
         <v>210041700117</v>
@@ -2416,7 +2533,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="6">
         <v>210041700119</v>
@@ -2433,7 +2550,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="6">
         <v>210041700120</v>
@@ -2450,7 +2567,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C100" s="6">
         <v>210041700122</v>
@@ -2467,7 +2584,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" s="6">
         <v>210041700123</v>
@@ -2484,7 +2601,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="6">
         <v>210041700126</v>
@@ -2501,7 +2618,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="6">
         <v>210041700128</v>
@@ -2518,7 +2635,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="6">
         <v>210041722020</v>
@@ -2535,7 +2652,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="6">
         <v>210041722021</v>
@@ -2552,13 +2669,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C106" s="6">
         <v>210041722022</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
@@ -2569,13 +2686,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" s="6">
         <v>210041722023</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
@@ -2586,7 +2703,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C108" s="6">
         <v>210041722024</v>
@@ -2603,7 +2720,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C109" s="6">
         <v>210041722025</v>
@@ -2620,7 +2737,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C110" s="6">
         <v>210041722026</v>
@@ -2637,7 +2754,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="6">
         <v>210041722027</v>
@@ -2654,13 +2771,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="6">
         <v>210041722028</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G112" s="2">
         <v>0</v>
@@ -2671,7 +2788,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C113" s="6">
         <v>210041722030</v>
@@ -2688,13 +2805,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C114" s="6">
         <v>210041722032</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G114" s="2">
         <v>0</v>
@@ -2705,7 +2822,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C115" s="6">
         <v>210041722034</v>
@@ -2722,7 +2839,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116" s="6">
         <v>210041722035</v>
@@ -2739,7 +2856,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117" s="6">
         <v>210041722036</v>
@@ -2756,7 +2873,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="6">
         <v>210041722037</v>
@@ -2773,7 +2890,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="6">
         <v>210041722038</v>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2085,8 +2085,11 @@
       <c r="G71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2136,8 +2139,11 @@
       <c r="G74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2153,8 +2159,11 @@
       <c r="G75" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2171,7 +2180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2221,8 +2230,11 @@
       <c r="G79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2239,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2272,8 +2284,11 @@
       <c r="G82" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2290,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2307,7 +2322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2324,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2341,7 +2356,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2375,7 +2390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2391,8 +2406,11 @@
       <c r="G89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2409,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2426,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2443,7 +2461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2459,8 +2477,11 @@
       <c r="G93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2476,8 +2497,11 @@
       <c r="G94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2493,8 +2517,11 @@
       <c r="G95" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2511,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2528,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2545,7 +2572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2561,8 +2588,11 @@
       <c r="G99" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2578,8 +2608,11 @@
       <c r="G100" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2596,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2613,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2629,8 +2662,11 @@
       <c r="G103" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2647,7 +2683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2664,7 +2700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2681,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2698,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2714,8 +2750,11 @@
       <c r="G108" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2731,8 +2770,11 @@
       <c r="G109" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2749,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2766,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2783,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2799,8 +2841,11 @@
       <c r="G113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2817,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2834,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2850,8 +2895,11 @@
       <c r="G116" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2867,8 +2915,11 @@
       <c r="G117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2884,8 +2935,11 @@
       <c r="G118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2900,6 +2954,9 @@
       </c>
       <c r="G119" s="2">
         <v>41</v>
+      </c>
+      <c r="H119" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +812,9 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -829,6 +832,9 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -866,6 +872,9 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1063,6 +1072,9 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
+      <c r="H16" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1100,6 +1112,9 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1157,6 +1172,9 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1214,6 +1232,9 @@
       <c r="G24" s="2">
         <v>0</v>
       </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1231,6 +1252,9 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1248,6 +1272,9 @@
       <c r="G26" s="2">
         <v>0</v>
       </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1325,6 +1352,9 @@
       <c r="G30" s="2">
         <v>0</v>
       </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1502,6 +1532,9 @@
       <c r="G39" s="2">
         <v>0</v>
       </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1559,6 +1592,9 @@
       <c r="G42" s="2">
         <v>46</v>
       </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1596,6 +1632,9 @@
       <c r="G44" s="2">
         <v>0</v>
       </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1613,6 +1652,9 @@
       <c r="G45" s="2">
         <v>0</v>
       </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1630,6 +1672,9 @@
       <c r="G46" s="2">
         <v>0</v>
       </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -1687,6 +1732,9 @@
       <c r="G49" s="4">
         <v>50</v>
       </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -1744,6 +1792,9 @@
       <c r="G52" s="2">
         <v>43</v>
       </c>
+      <c r="H52" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -1761,6 +1812,9 @@
       <c r="G53" s="2">
         <v>0</v>
       </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -1838,6 +1892,9 @@
       <c r="G57" s="2">
         <v>0</v>
       </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -1895,6 +1952,9 @@
       <c r="G60" s="2">
         <v>0</v>
       </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -1932,6 +1992,9 @@
       <c r="G62" s="2">
         <v>0</v>
       </c>
+      <c r="H62" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -1949,6 +2012,9 @@
       <c r="G63" s="2">
         <v>0</v>
       </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -1966,6 +2032,9 @@
       <c r="G64" s="2">
         <v>0</v>
       </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -1983,6 +2052,9 @@
       <c r="G65" s="2">
         <v>0</v>
       </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -2000,6 +2072,9 @@
       <c r="G66" s="2">
         <v>33</v>
       </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -2017,6 +2092,9 @@
       <c r="G67" s="2">
         <v>0</v>
       </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -2034,6 +2112,9 @@
       <c r="G68" s="2">
         <v>28</v>
       </c>
+      <c r="H68" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -2051,6 +2132,9 @@
       <c r="G69" s="2">
         <v>36</v>
       </c>
+      <c r="H69" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -2068,6 +2152,9 @@
       <c r="G70" s="2">
         <v>0</v>
       </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2105,6 +2192,9 @@
       <c r="G72" s="2">
         <v>0</v>
       </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2122,6 +2212,9 @@
       <c r="G73" s="2">
         <v>33</v>
       </c>
+      <c r="H73" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -2179,6 +2272,9 @@
       <c r="G76" s="2">
         <v>34</v>
       </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -2196,6 +2292,9 @@
       <c r="G77" s="2">
         <v>37</v>
       </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2213,6 +2312,9 @@
       <c r="G78" s="2">
         <v>33</v>
       </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2250,6 +2352,9 @@
       <c r="G80" s="2">
         <v>0</v>
       </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -2267,6 +2372,9 @@
       <c r="G81" s="2">
         <v>0</v>
       </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -2304,6 +2412,9 @@
       <c r="G83" s="2">
         <v>0</v>
       </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -2321,6 +2432,9 @@
       <c r="G84" s="2">
         <v>41</v>
       </c>
+      <c r="H84" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -2338,6 +2452,9 @@
       <c r="G85" s="2">
         <v>0</v>
       </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -2355,6 +2472,9 @@
       <c r="G86" s="2">
         <v>33</v>
       </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -2372,6 +2492,9 @@
       <c r="G87" s="2">
         <v>0</v>
       </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -2389,6 +2512,9 @@
       <c r="G88" s="2">
         <v>33</v>
       </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -2426,6 +2552,9 @@
       <c r="G90" s="2">
         <v>0</v>
       </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -2443,6 +2572,9 @@
       <c r="G91" s="2">
         <v>0</v>
       </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
@@ -2460,6 +2592,9 @@
       <c r="G92" s="2">
         <v>33</v>
       </c>
+      <c r="H92" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -2537,6 +2672,9 @@
       <c r="G96" s="2">
         <v>0</v>
       </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -2554,6 +2692,9 @@
       <c r="G97" s="2">
         <v>0</v>
       </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -2571,6 +2712,9 @@
       <c r="G98" s="2">
         <v>37</v>
       </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -2628,6 +2772,9 @@
       <c r="G101" s="2">
         <v>0</v>
       </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -2645,6 +2792,9 @@
       <c r="G102" s="2">
         <v>0</v>
       </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -2682,6 +2832,9 @@
       <c r="G104" s="2">
         <v>40</v>
       </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -2699,6 +2852,9 @@
       <c r="G105" s="2">
         <v>26</v>
       </c>
+      <c r="H105" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -2716,6 +2872,9 @@
       <c r="G106" s="2">
         <v>0</v>
       </c>
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -2733,6 +2892,9 @@
       <c r="G107" s="2">
         <v>0</v>
       </c>
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -2790,6 +2952,9 @@
       <c r="G110" s="2">
         <v>0</v>
       </c>
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -2807,6 +2972,9 @@
       <c r="G111" s="2">
         <v>0</v>
       </c>
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -2824,6 +2992,9 @@
       <c r="G112" s="2">
         <v>0</v>
       </c>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -2861,6 +3032,9 @@
       <c r="G114" s="2">
         <v>0</v>
       </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -2876,6 +3050,9 @@
         <v>4</v>
       </c>
       <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H119"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="H104" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CNC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$G$1:$G$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$J$3:$J$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,9 +36,6 @@
     <t>A3 (25)</t>
   </si>
   <si>
-    <t>Attend %</t>
-  </si>
-  <si>
     <t>Final (40)</t>
   </si>
   <si>
@@ -367,13 +364,16 @@
   </si>
   <si>
     <t>A2 (35)</t>
+  </si>
+  <si>
+    <t>Attend (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +396,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -414,10 +421,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,14 +448,47 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -723,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,29 +777,31 @@
     <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="10" max="10" width="12.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.140625" style="8"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -769,42 +812,43 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -815,16 +859,20 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -835,13 +883,19 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>210041700001</v>
@@ -855,13 +909,16 @@
       <c r="H5" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6">
         <v>210041700002</v>
@@ -875,13 +932,16 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
         <v>210041700003</v>
@@ -895,13 +955,16 @@
       <c r="H7" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="13">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6">
         <v>210041700005</v>
@@ -915,13 +978,16 @@
       <c r="H8" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="13">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6">
         <v>210041700006</v>
@@ -935,13 +1001,16 @@
       <c r="H9" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="13">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6">
         <v>210041700010</v>
@@ -955,13 +1024,16 @@
       <c r="H10" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6">
         <v>210041700011</v>
@@ -975,19 +1047,22 @@
       <c r="H11" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="13">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6">
         <v>210041700013</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -995,13 +1070,16 @@
       <c r="H12" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="13">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6">
         <v>210041700015</v>
@@ -1015,13 +1093,16 @@
       <c r="H13" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="13">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6">
         <v>210041700016</v>
@@ -1035,13 +1116,16 @@
       <c r="H14" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6">
         <v>210041700017</v>
@@ -1055,13 +1139,16 @@
       <c r="H15" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="13">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6">
         <v>210041700018</v>
@@ -1075,13 +1162,16 @@
       <c r="H16" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6">
         <v>210041700020</v>
@@ -1095,13 +1185,16 @@
       <c r="H17" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6">
         <v>210041700024</v>
@@ -1115,13 +1208,16 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="13">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6">
         <v>210041700025</v>
@@ -1135,13 +1231,16 @@
       <c r="H19" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="13">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6">
         <v>210041700026</v>
@@ -1155,13 +1254,16 @@
       <c r="H20" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="13">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6">
         <v>210041700028</v>
@@ -1175,13 +1277,16 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="13">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6">
         <v>210041700029</v>
@@ -1195,13 +1300,16 @@
       <c r="H22" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="13">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6">
         <v>210041700030</v>
@@ -1215,13 +1323,16 @@
       <c r="H23" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6">
         <v>210041700032</v>
@@ -1235,13 +1346,16 @@
       <c r="H24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="13">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="6">
         <v>210041700033</v>
@@ -1255,13 +1369,16 @@
       <c r="H25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="13">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="6">
         <v>210041700034</v>
@@ -1275,13 +1392,16 @@
       <c r="H26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" s="13">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6">
         <v>210041700035</v>
@@ -1295,13 +1415,16 @@
       <c r="H27" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27" s="13">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6">
         <v>210041700036</v>
@@ -1315,13 +1438,16 @@
       <c r="H28" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" s="13">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="6">
         <v>210041700037</v>
@@ -1335,13 +1461,16 @@
       <c r="H29" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" s="13">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="6">
         <v>210041700038</v>
@@ -1355,13 +1484,16 @@
       <c r="H30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" s="13">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6">
         <v>210041700040</v>
@@ -1375,13 +1507,16 @@
       <c r="H31" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31" s="13">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="6">
         <v>210041700041</v>
@@ -1395,13 +1530,16 @@
       <c r="H32" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="6">
         <v>210041700044</v>
@@ -1415,13 +1553,16 @@
       <c r="H33" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="13">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6">
         <v>210041700046</v>
@@ -1435,13 +1576,16 @@
       <c r="H34" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="13">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6">
         <v>210041700049</v>
@@ -1455,13 +1599,16 @@
       <c r="H35" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="6">
         <v>210041700050</v>
@@ -1475,13 +1622,16 @@
       <c r="H36" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36" s="13">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="6">
         <v>210041700051</v>
@@ -1495,13 +1645,16 @@
       <c r="H37" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37" s="13">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="6">
         <v>210041700052</v>
@@ -1515,13 +1668,16 @@
       <c r="H38" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="6">
         <v>210041700053</v>
@@ -1535,13 +1691,16 @@
       <c r="H39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="6">
         <v>210041700055</v>
@@ -1555,13 +1714,16 @@
       <c r="H40" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" s="13">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="6">
         <v>210041700056</v>
@@ -1575,13 +1737,16 @@
       <c r="H41" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" s="13">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="6">
         <v>210041700057</v>
@@ -1595,13 +1760,16 @@
       <c r="H42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="6">
         <v>210041700058</v>
@@ -1615,13 +1783,16 @@
       <c r="H43" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" s="13">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="6">
         <v>210041700059</v>
@@ -1635,13 +1806,16 @@
       <c r="H44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J44" s="13">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="6">
         <v>210041700060</v>
@@ -1655,13 +1829,16 @@
       <c r="H45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J45" s="13">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="6">
         <v>210041700061</v>
@@ -1675,13 +1852,16 @@
       <c r="H46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J46" s="13">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="6">
         <v>210041700062</v>
@@ -1695,13 +1875,16 @@
       <c r="H47" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J47" s="13">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="6">
         <v>210041700063</v>
@@ -1715,13 +1898,16 @@
       <c r="H48" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="6">
         <v>210041722001</v>
@@ -1735,13 +1921,17 @@
       <c r="H49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="6">
         <v>210041722003</v>
@@ -1755,19 +1945,23 @@
       <c r="H50" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J50" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="7">
         <v>210041722004</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G51" s="2">
         <v>49</v>
@@ -1775,13 +1969,16 @@
       <c r="H51" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J51" s="13">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="7">
         <v>210041722005</v>
@@ -1795,13 +1992,16 @@
       <c r="H52" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52" s="13">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="7">
         <v>210041722007</v>
@@ -1815,13 +2015,16 @@
       <c r="H53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J53" s="13">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="7">
         <v>210041722008</v>
@@ -1835,13 +2038,16 @@
       <c r="H54" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J54" s="13">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="7">
         <v>210041722010</v>
@@ -1855,13 +2061,16 @@
       <c r="H55" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J55" s="13">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="7">
         <v>210041722012</v>
@@ -1875,13 +2084,16 @@
       <c r="H56" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J56" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="7">
         <v>210041722014</v>
@@ -1895,13 +2107,16 @@
       <c r="H57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57" s="13">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="7">
         <v>210041722015</v>
@@ -1915,13 +2130,16 @@
       <c r="H58" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J58" s="13">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="7">
         <v>210041722016</v>
@@ -1935,19 +2153,22 @@
       <c r="H59" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J59" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C60" s="7">
         <v>210041722017</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -1955,13 +2176,16 @@
       <c r="H60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J60" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="7">
         <v>210041722019</v>
@@ -1975,13 +2199,16 @@
       <c r="H61" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J61" s="13">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="7">
         <v>210041700012</v>
@@ -1995,13 +2222,14 @@
       <c r="H62" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="7">
         <v>210041700064</v>
@@ -2015,13 +2243,14 @@
       <c r="H63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" s="16"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="7">
         <v>210041700065</v>
@@ -2035,19 +2264,20 @@
       <c r="H64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="7">
         <v>210041700066</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
@@ -2055,13 +2285,14 @@
       <c r="H65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="7">
         <v>210041700067</v>
@@ -2075,13 +2306,14 @@
       <c r="H66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="7">
         <v>210041700068</v>
@@ -2095,13 +2327,14 @@
       <c r="H67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J67" s="16"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="7">
         <v>210041700069</v>
@@ -2115,19 +2348,20 @@
       <c r="H68" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="7">
         <v>210041700071</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G69" s="2">
         <v>36</v>
@@ -2135,13 +2369,14 @@
       <c r="H69" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="7">
         <v>210041700073</v>
@@ -2155,13 +2390,14 @@
       <c r="H70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J70" s="16"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="7">
         <v>210041700076</v>
@@ -2175,19 +2411,20 @@
       <c r="H71" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J71" s="16"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" s="7">
         <v>210041700081</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -2195,13 +2432,14 @@
       <c r="H72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J72" s="16"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C73" s="7">
         <v>210041700082</v>
@@ -2215,13 +2453,14 @@
       <c r="H73" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J73" s="16"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="7">
         <v>210041700083</v>
@@ -2235,13 +2474,14 @@
       <c r="H74" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="7">
         <v>210041700084</v>
@@ -2255,13 +2495,14 @@
       <c r="H75" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" s="7">
         <v>210041700085</v>
@@ -2275,13 +2516,14 @@
       <c r="H76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="7">
         <v>210041700087</v>
@@ -2295,13 +2537,14 @@
       <c r="H77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="7">
         <v>210041700088</v>
@@ -2315,13 +2558,14 @@
       <c r="H78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J78" s="16"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="7">
         <v>210041700090</v>
@@ -2335,13 +2579,14 @@
       <c r="H79" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J79" s="16"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="7">
         <v>210041700091</v>
@@ -2355,19 +2600,20 @@
       <c r="H80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="7">
         <v>210041700092</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -2375,19 +2621,20 @@
       <c r="H81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="7">
         <v>210041700094</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G82" s="2">
         <v>36</v>
@@ -2395,13 +2642,14 @@
       <c r="H82" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="7">
         <v>210041700095</v>
@@ -2415,13 +2663,14 @@
       <c r="H83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J83" s="16"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="7">
         <v>210041700097</v>
@@ -2435,19 +2684,20 @@
       <c r="H84" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J84" s="16"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" s="7">
         <v>210041700098</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
@@ -2455,19 +2705,20 @@
       <c r="H85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J85" s="16"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="7">
         <v>210041700102</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G86" s="2">
         <v>33</v>
@@ -2475,19 +2726,20 @@
       <c r="H86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J86" s="16"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="7">
         <v>210041700103</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
@@ -2495,13 +2747,14 @@
       <c r="H87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J87" s="16"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="6">
         <v>210041700104</v>
@@ -2515,13 +2768,14 @@
       <c r="H88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J88" s="16"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" s="6">
         <v>210041700105</v>
@@ -2535,13 +2789,14 @@
       <c r="H89" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J89" s="16"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="6">
         <v>210041700106</v>
@@ -2555,13 +2810,14 @@
       <c r="H90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J90" s="16"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" s="6">
         <v>210041700108</v>
@@ -2575,13 +2831,14 @@
       <c r="H91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J91" s="16"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" s="6">
         <v>210041700109</v>
@@ -2595,13 +2852,14 @@
       <c r="H92" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C93" s="6">
         <v>210041700112</v>
@@ -2615,13 +2873,14 @@
       <c r="H93" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J93" s="16"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C94" s="6">
         <v>210041700113</v>
@@ -2635,13 +2894,14 @@
       <c r="H94" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J94" s="16"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" s="6">
         <v>210041700114</v>
@@ -2655,19 +2915,20 @@
       <c r="H95" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J95" s="16"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96" s="6">
         <v>210041700116</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -2675,13 +2936,14 @@
       <c r="H96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J96" s="16"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97" s="6">
         <v>210041700117</v>
@@ -2695,13 +2957,14 @@
       <c r="H97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J97" s="16"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98" s="6">
         <v>210041700119</v>
@@ -2715,13 +2978,14 @@
       <c r="H98" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J98" s="16"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="6">
         <v>210041700120</v>
@@ -2735,13 +2999,14 @@
       <c r="H99" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J99" s="16"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="6">
         <v>210041700122</v>
@@ -2755,13 +3020,14 @@
       <c r="H100" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J100" s="16"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101" s="6">
         <v>210041700123</v>
@@ -2775,13 +3041,14 @@
       <c r="H101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J101" s="16"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="6">
         <v>210041700126</v>
@@ -2795,13 +3062,14 @@
       <c r="H102" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J102" s="16"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="6">
         <v>210041700128</v>
@@ -2815,13 +3083,14 @@
       <c r="H103" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J103" s="16"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="6">
         <v>210041722020</v>
@@ -2835,13 +3104,14 @@
       <c r="H104" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J104" s="16"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="6">
         <v>210041722021</v>
@@ -2855,19 +3125,20 @@
       <c r="H105" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J105" s="16"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C106" s="6">
         <v>210041722022</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
@@ -2875,19 +3146,20 @@
       <c r="H106" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J106" s="16"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="6">
         <v>210041722023</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
@@ -2895,13 +3167,14 @@
       <c r="H107" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J107" s="16"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C108" s="6">
         <v>210041722024</v>
@@ -2915,13 +3188,14 @@
       <c r="H108" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J108" s="16"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C109" s="6">
         <v>210041722025</v>
@@ -2935,13 +3209,14 @@
       <c r="H109" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J109" s="16"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C110" s="6">
         <v>210041722026</v>
@@ -2955,13 +3230,14 @@
       <c r="H110" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J110" s="16"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="6">
         <v>210041722027</v>
@@ -2975,19 +3251,20 @@
       <c r="H111" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J111" s="16"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="6">
         <v>210041722028</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G112" s="2">
         <v>0</v>
@@ -2995,13 +3272,14 @@
       <c r="H112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J112" s="16"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" s="6">
         <v>210041722030</v>
@@ -3015,19 +3293,20 @@
       <c r="H113" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J113" s="16"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="6">
         <v>210041722032</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G114" s="2">
         <v>0</v>
@@ -3035,13 +3314,14 @@
       <c r="H114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J114" s="16"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="6">
         <v>210041722034</v>
@@ -3055,13 +3335,14 @@
       <c r="H115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J115" s="16"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="6">
         <v>210041722035</v>
@@ -3075,13 +3356,14 @@
       <c r="H116" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J116" s="16"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117" s="6">
         <v>210041722036</v>
@@ -3095,13 +3377,14 @@
       <c r="H117" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J117" s="16"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="6">
         <v>210041722037</v>
@@ -3115,13 +3398,14 @@
       <c r="H118" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J118" s="16"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C119" s="6">
         <v>210041722038</v>
@@ -3135,11 +3419,17 @@
       <c r="H119" s="2">
         <v>33</v>
       </c>
+      <c r="J119" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <conditionalFormatting sqref="J3:J61">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -425,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,10 +466,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -480,7 +483,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -766,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J61"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +795,7 @@
     <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="2"/>
@@ -786,20 +804,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -859,7 +877,7 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="15">
         <v>0.125</v>
       </c>
       <c r="N3" s="10"/>
@@ -883,12 +901,10 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="15">
         <v>0.5625</v>
       </c>
-      <c r="N4" s="11">
-        <v>0.125</v>
-      </c>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -909,7 +925,7 @@
       <c r="H5" s="2">
         <v>35</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="16">
         <v>0.5</v>
       </c>
     </row>
@@ -932,7 +948,7 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="17">
         <v>0.25</v>
       </c>
     </row>
@@ -955,7 +971,7 @@
       <c r="H7" s="2">
         <v>32</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="17">
         <v>0.6875</v>
       </c>
     </row>
@@ -978,7 +994,7 @@
       <c r="H8" s="2">
         <v>23</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="17">
         <v>0.1875</v>
       </c>
     </row>
@@ -1001,7 +1017,7 @@
       <c r="H9" s="2">
         <v>33</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="17">
         <v>0.375</v>
       </c>
     </row>
@@ -1024,7 +1040,7 @@
       <c r="H10" s="2">
         <v>35</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="17">
         <v>0.25</v>
       </c>
     </row>
@@ -1047,7 +1063,7 @@
       <c r="H11" s="2">
         <v>33</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="17">
         <v>0.3125</v>
       </c>
     </row>
@@ -1070,7 +1086,7 @@
       <c r="H12" s="2">
         <v>33</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="17">
         <v>0.375</v>
       </c>
     </row>
@@ -1093,7 +1109,7 @@
       <c r="H13" s="2">
         <v>33</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="17">
         <v>0.625</v>
       </c>
     </row>
@@ -1116,7 +1132,7 @@
       <c r="H14" s="2">
         <v>34</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="17">
         <v>0.25</v>
       </c>
     </row>
@@ -1139,7 +1155,7 @@
       <c r="H15" s="2">
         <v>32</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="17">
         <v>0.5625</v>
       </c>
     </row>
@@ -1162,7 +1178,7 @@
       <c r="H16" s="2">
         <v>25</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="17">
         <v>0.5</v>
       </c>
     </row>
@@ -1185,7 +1201,7 @@
       <c r="H17" s="2">
         <v>35</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="17">
         <v>0.5</v>
       </c>
     </row>
@@ -1208,7 +1224,7 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="17">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -1231,7 +1247,7 @@
       <c r="H19" s="2">
         <v>32</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="17">
         <v>0.9375</v>
       </c>
     </row>
@@ -1254,7 +1270,7 @@
       <c r="H20" s="2">
         <v>33</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="17">
         <v>0.875</v>
       </c>
     </row>
@@ -1277,7 +1293,7 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="17">
         <v>0.5625</v>
       </c>
     </row>
@@ -1300,7 +1316,7 @@
       <c r="H22" s="2">
         <v>35</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="17">
         <v>0.9375</v>
       </c>
     </row>
@@ -1323,7 +1339,7 @@
       <c r="H23" s="2">
         <v>34</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1346,7 +1362,7 @@
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="17">
         <v>0.125</v>
       </c>
     </row>
@@ -1369,7 +1385,7 @@
       <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="17">
         <v>0.3125</v>
       </c>
     </row>
@@ -1392,7 +1408,7 @@
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="17">
         <v>0.1875</v>
       </c>
     </row>
@@ -1415,7 +1431,7 @@
       <c r="H27" s="2">
         <v>35</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="17">
         <v>0.375</v>
       </c>
     </row>
@@ -1438,7 +1454,7 @@
       <c r="H28" s="2">
         <v>33</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="17">
         <v>0.375</v>
       </c>
     </row>
@@ -1461,7 +1477,7 @@
       <c r="H29" s="2">
         <v>32</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="17">
         <v>0.1875</v>
       </c>
     </row>
@@ -1484,7 +1500,7 @@
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="17">
         <v>0.3125</v>
       </c>
     </row>
@@ -1507,7 +1523,7 @@
       <c r="H31" s="2">
         <v>32</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="17">
         <v>0.375</v>
       </c>
     </row>
@@ -1530,7 +1546,7 @@
       <c r="H32" s="2">
         <v>33</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="17">
         <v>0.5</v>
       </c>
     </row>
@@ -1553,7 +1569,7 @@
       <c r="H33" s="2">
         <v>33</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="17">
         <v>0.6875</v>
       </c>
     </row>
@@ -1576,7 +1592,7 @@
       <c r="H34" s="2">
         <v>33</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="17">
         <v>0.9375</v>
       </c>
     </row>
@@ -1599,7 +1615,7 @@
       <c r="H35" s="2">
         <v>33</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="17">
         <v>0.75</v>
       </c>
     </row>
@@ -1622,7 +1638,7 @@
       <c r="H36" s="2">
         <v>32</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="17">
         <v>0.8125</v>
       </c>
     </row>
@@ -1645,7 +1661,7 @@
       <c r="H37" s="2">
         <v>35</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="17">
         <v>0.6875</v>
       </c>
     </row>
@@ -1668,7 +1684,7 @@
       <c r="H38" s="2">
         <v>34</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="17">
         <v>0.75</v>
       </c>
     </row>
@@ -1691,7 +1707,7 @@
       <c r="H39" s="2">
         <v>0</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="17">
         <v>0.25</v>
       </c>
     </row>
@@ -1714,7 +1730,7 @@
       <c r="H40" s="2">
         <v>32</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="17">
         <v>0.3125</v>
       </c>
     </row>
@@ -1737,7 +1753,7 @@
       <c r="H41" s="2">
         <v>33</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="17">
         <v>0.5625</v>
       </c>
     </row>
@@ -1760,7 +1776,7 @@
       <c r="H42" s="2">
         <v>0</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="17">
         <v>0.5</v>
       </c>
     </row>
@@ -1783,7 +1799,7 @@
       <c r="H43" s="2">
         <v>35</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="17">
         <v>0.3125</v>
       </c>
     </row>
@@ -1806,7 +1822,7 @@
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="17">
         <v>0.375</v>
       </c>
     </row>
@@ -1829,7 +1845,7 @@
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="17">
         <v>0.625</v>
       </c>
     </row>
@@ -1852,7 +1868,7 @@
       <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="17">
         <v>0.3125</v>
       </c>
     </row>
@@ -1875,7 +1891,7 @@
       <c r="H47" s="2">
         <v>33</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="17">
         <v>0.625</v>
       </c>
     </row>
@@ -1898,7 +1914,7 @@
       <c r="H48" s="2">
         <v>32</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="17">
         <v>0.75</v>
       </c>
     </row>
@@ -1921,7 +1937,7 @@
       <c r="H49" s="4">
         <v>0</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="17">
         <v>0.875</v>
       </c>
       <c r="N49" s="8"/>
@@ -1945,7 +1961,7 @@
       <c r="H50" s="4">
         <v>35</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="17">
         <v>0.375</v>
       </c>
       <c r="N50" s="8"/>
@@ -1969,7 +1985,7 @@
       <c r="H51" s="2">
         <v>35</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="17">
         <v>0.6875</v>
       </c>
     </row>
@@ -1992,7 +2008,7 @@
       <c r="H52" s="2">
         <v>26</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="17">
         <v>0.4375</v>
       </c>
     </row>
@@ -2015,7 +2031,7 @@
       <c r="H53" s="2">
         <v>0</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="17">
         <v>0.1875</v>
       </c>
     </row>
@@ -2038,7 +2054,7 @@
       <c r="H54" s="2">
         <v>35</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="17">
         <v>0.8125</v>
       </c>
     </row>
@@ -2061,7 +2077,7 @@
       <c r="H55" s="2">
         <v>34</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="17">
         <v>0.5625</v>
       </c>
     </row>
@@ -2084,7 +2100,7 @@
       <c r="H56" s="2">
         <v>33</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="17">
         <v>0.75</v>
       </c>
     </row>
@@ -2107,7 +2123,7 @@
       <c r="H57" s="2">
         <v>0</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="17">
         <v>0.375</v>
       </c>
     </row>
@@ -2130,7 +2146,7 @@
       <c r="H58" s="2">
         <v>25</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="17">
         <v>0.1875</v>
       </c>
     </row>
@@ -2153,7 +2169,7 @@
       <c r="H59" s="2">
         <v>33</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="17">
         <v>0.75</v>
       </c>
     </row>
@@ -2176,7 +2192,7 @@
       <c r="H60" s="2">
         <v>0</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2199,7 +2215,7 @@
       <c r="H61" s="2">
         <v>33</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="17">
         <v>0.4375</v>
       </c>
     </row>
@@ -2222,7 +2238,9 @@
       <c r="H62" s="2">
         <v>31</v>
       </c>
-      <c r="J62" s="16"/>
+      <c r="J62" s="17">
+        <v>0.76923076923076927</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2243,7 +2261,9 @@
       <c r="H63" s="2">
         <v>0</v>
       </c>
-      <c r="J63" s="16"/>
+      <c r="J63" s="17">
+        <v>0.38461538461538464</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -2264,7 +2284,9 @@
       <c r="H64" s="2">
         <v>0</v>
       </c>
-      <c r="J64" s="16"/>
+      <c r="J64" s="17">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -2285,7 +2307,9 @@
       <c r="H65" s="2">
         <v>0</v>
       </c>
-      <c r="J65" s="16"/>
+      <c r="J65" s="17">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -2306,7 +2330,9 @@
       <c r="H66" s="2">
         <v>0</v>
       </c>
-      <c r="J66" s="16"/>
+      <c r="J66" s="17">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -2327,7 +2353,9 @@
       <c r="H67" s="2">
         <v>0</v>
       </c>
-      <c r="J67" s="16"/>
+      <c r="J67" s="17">
+        <v>0.46153846153846156</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -2348,7 +2376,9 @@
       <c r="H68" s="2">
         <v>30</v>
       </c>
-      <c r="J68" s="16"/>
+      <c r="J68" s="17">
+        <v>0.84615384615384615</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -2369,7 +2399,9 @@
       <c r="H69" s="2">
         <v>31</v>
       </c>
-      <c r="J69" s="16"/>
+      <c r="J69" s="17">
+        <v>0.30769230769230771</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -2390,7 +2422,9 @@
       <c r="H70" s="2">
         <v>0</v>
       </c>
-      <c r="J70" s="16"/>
+      <c r="J70" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2411,7 +2445,9 @@
       <c r="H71" s="2">
         <v>33</v>
       </c>
-      <c r="J71" s="16"/>
+      <c r="J71" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2432,7 +2468,9 @@
       <c r="H72" s="2">
         <v>0</v>
       </c>
-      <c r="J72" s="16"/>
+      <c r="J72" s="17">
+        <v>0.23076923076923078</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2453,7 +2491,9 @@
       <c r="H73" s="2">
         <v>24</v>
       </c>
-      <c r="J73" s="16"/>
+      <c r="J73" s="17">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -2474,7 +2514,9 @@
       <c r="H74" s="2">
         <v>33</v>
       </c>
-      <c r="J74" s="16"/>
+      <c r="J74" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -2495,7 +2537,9 @@
       <c r="H75" s="2">
         <v>30</v>
       </c>
-      <c r="J75" s="16"/>
+      <c r="J75" s="17">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2516,7 +2560,9 @@
       <c r="H76" s="2">
         <v>0</v>
       </c>
-      <c r="J76" s="16"/>
+      <c r="J76" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -2537,7 +2583,9 @@
       <c r="H77" s="2">
         <v>0</v>
       </c>
-      <c r="J77" s="16"/>
+      <c r="J77" s="17">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2558,7 +2606,9 @@
       <c r="H78" s="2">
         <v>0</v>
       </c>
-      <c r="J78" s="16"/>
+      <c r="J78" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2579,7 +2629,9 @@
       <c r="H79" s="2">
         <v>33</v>
       </c>
-      <c r="J79" s="16"/>
+      <c r="J79" s="17">
+        <v>0.46153846153846156</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -2600,7 +2652,9 @@
       <c r="H80" s="2">
         <v>0</v>
       </c>
-      <c r="J80" s="16"/>
+      <c r="J80" s="17">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -2621,7 +2675,9 @@
       <c r="H81" s="2">
         <v>0</v>
       </c>
-      <c r="J81" s="16"/>
+      <c r="J81" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -2642,7 +2698,9 @@
       <c r="H82" s="2">
         <v>27</v>
       </c>
-      <c r="J82" s="16"/>
+      <c r="J82" s="17">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -2663,7 +2721,9 @@
       <c r="H83" s="2">
         <v>0</v>
       </c>
-      <c r="J83" s="16"/>
+      <c r="J83" s="17">
+        <v>0.38461538461538464</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -2684,7 +2744,9 @@
       <c r="H84" s="2">
         <v>28</v>
       </c>
-      <c r="J84" s="16"/>
+      <c r="J84" s="17">
+        <v>0.84615384615384615</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -2705,7 +2767,9 @@
       <c r="H85" s="2">
         <v>0</v>
       </c>
-      <c r="J85" s="16"/>
+      <c r="J85" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -2726,7 +2790,9 @@
       <c r="H86" s="2">
         <v>0</v>
       </c>
-      <c r="J86" s="16"/>
+      <c r="J86" s="17">
+        <v>0.92307692307692313</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -2747,7 +2813,9 @@
       <c r="H87" s="2">
         <v>0</v>
       </c>
-      <c r="J87" s="16"/>
+      <c r="J87" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -2768,7 +2836,9 @@
       <c r="H88" s="2">
         <v>0</v>
       </c>
-      <c r="J88" s="16"/>
+      <c r="J88" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -2789,7 +2859,9 @@
       <c r="H89" s="2">
         <v>26</v>
       </c>
-      <c r="J89" s="16"/>
+      <c r="J89" s="17">
+        <v>0.46153846153846156</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2810,7 +2882,9 @@
       <c r="H90" s="2">
         <v>0</v>
       </c>
-      <c r="J90" s="16"/>
+      <c r="J90" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -2831,7 +2905,9 @@
       <c r="H91" s="2">
         <v>0</v>
       </c>
-      <c r="J91" s="16"/>
+      <c r="J91" s="17">
+        <v>0.38461538461538464</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
@@ -2852,7 +2928,9 @@
       <c r="H92" s="2">
         <v>28</v>
       </c>
-      <c r="J92" s="16"/>
+      <c r="J92" s="17">
+        <v>0.92307692307692313</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -2873,7 +2951,9 @@
       <c r="H93" s="2">
         <v>33</v>
       </c>
-      <c r="J93" s="16"/>
+      <c r="J93" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -2894,7 +2974,9 @@
       <c r="H94" s="2">
         <v>30</v>
       </c>
-      <c r="J94" s="16"/>
+      <c r="J94" s="17">
+        <v>0.46153846153846156</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -2915,7 +2997,9 @@
       <c r="H95" s="2">
         <v>35</v>
       </c>
-      <c r="J95" s="16"/>
+      <c r="J95" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -2936,7 +3020,9 @@
       <c r="H96" s="2">
         <v>0</v>
       </c>
-      <c r="J96" s="16"/>
+      <c r="J96" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -2957,7 +3043,9 @@
       <c r="H97" s="2">
         <v>0</v>
       </c>
-      <c r="J97" s="16"/>
+      <c r="J97" s="17">
+        <v>0.38461538461538464</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -2978,7 +3066,9 @@
       <c r="H98" s="2">
         <v>0</v>
       </c>
-      <c r="J98" s="16"/>
+      <c r="J98" s="17">
+        <v>0.92307692307692313</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -2999,7 +3089,9 @@
       <c r="H99" s="2">
         <v>31</v>
       </c>
-      <c r="J99" s="16"/>
+      <c r="J99" s="17">
+        <v>0.76923076923076927</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
@@ -3020,7 +3112,9 @@
       <c r="H100" s="2">
         <v>31</v>
       </c>
-      <c r="J100" s="16"/>
+      <c r="J100" s="17">
+        <v>0.38461538461538464</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -3041,7 +3135,9 @@
       <c r="H101" s="2">
         <v>0</v>
       </c>
-      <c r="J101" s="16"/>
+      <c r="J101" s="17">
+        <v>0.38461538461538464</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -3062,7 +3158,9 @@
       <c r="H102" s="2">
         <v>0</v>
       </c>
-      <c r="J102" s="16"/>
+      <c r="J102" s="17">
+        <v>0.61538461538461542</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -3083,7 +3181,9 @@
       <c r="H103" s="2">
         <v>33</v>
       </c>
-      <c r="J103" s="16"/>
+      <c r="J103" s="17">
+        <v>0.61538461538461542</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -3104,7 +3204,9 @@
       <c r="H104" s="2">
         <v>30</v>
       </c>
-      <c r="J104" s="16"/>
+      <c r="J104" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -3125,7 +3227,9 @@
       <c r="H105" s="2">
         <v>25</v>
       </c>
-      <c r="J105" s="16"/>
+      <c r="J105" s="17">
+        <v>0.76923076923076927</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -3146,7 +3250,9 @@
       <c r="H106" s="2">
         <v>0</v>
       </c>
-      <c r="J106" s="16"/>
+      <c r="J106" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -3167,7 +3273,9 @@
       <c r="H107" s="2">
         <v>0</v>
       </c>
-      <c r="J107" s="16"/>
+      <c r="J107" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -3188,7 +3296,9 @@
       <c r="H108" s="2">
         <v>31</v>
       </c>
-      <c r="J108" s="16"/>
+      <c r="J108" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -3209,7 +3319,9 @@
       <c r="H109" s="2">
         <v>32</v>
       </c>
-      <c r="J109" s="16"/>
+      <c r="J109" s="17">
+        <v>0.61538461538461542</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -3230,7 +3342,9 @@
       <c r="H110" s="2">
         <v>0</v>
       </c>
-      <c r="J110" s="16"/>
+      <c r="J110" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -3251,7 +3365,9 @@
       <c r="H111" s="2">
         <v>0</v>
       </c>
-      <c r="J111" s="16"/>
+      <c r="J111" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -3272,7 +3388,9 @@
       <c r="H112" s="2">
         <v>0</v>
       </c>
-      <c r="J112" s="16"/>
+      <c r="J112" s="17">
+        <v>0.38461538461538464</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -3293,7 +3411,9 @@
       <c r="H113" s="2">
         <v>27</v>
       </c>
-      <c r="J113" s="16"/>
+      <c r="J113" s="17">
+        <v>0.76923076923076927</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -3314,7 +3434,9 @@
       <c r="H114" s="2">
         <v>0</v>
       </c>
-      <c r="J114" s="16"/>
+      <c r="J114" s="17">
+        <v>0.30769230769230771</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -3335,7 +3457,9 @@
       <c r="H115" s="2">
         <v>0</v>
       </c>
-      <c r="J115" s="16"/>
+      <c r="J115" s="17">
+        <v>0.69230769230769229</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -3356,7 +3480,9 @@
       <c r="H116" s="2">
         <v>31</v>
       </c>
-      <c r="J116" s="16"/>
+      <c r="J116" s="17">
+        <v>0.84615384615384615</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -3377,7 +3503,9 @@
       <c r="H117" s="2">
         <v>28</v>
       </c>
-      <c r="J117" s="16"/>
+      <c r="J117" s="17">
+        <v>0.46153846153846156</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
@@ -3398,7 +3526,9 @@
       <c r="H118" s="2">
         <v>26</v>
       </c>
-      <c r="J118" s="16"/>
+      <c r="J118" s="17">
+        <v>0.53846153846153844</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
@@ -3419,14 +3549,21 @@
       <c r="H119" s="2">
         <v>33</v>
       </c>
-      <c r="J119" s="16"/>
+      <c r="J119" s="17">
+        <v>0.76923076923076927</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J61">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+      <formula>0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J119">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -373,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,13 +396,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -421,11 +414,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,18 +464,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -782,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +805,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -819,7 +821,7 @@
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -858,7 +860,7 @@
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -878,11 +880,15 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <v>0.125</v>
+        <v>12.5</v>
       </c>
       <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -902,11 +908,15 @@
         <v>0</v>
       </c>
       <c r="J4" s="15">
-        <v>0.5625</v>
+        <v>56.25</v>
       </c>
       <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -926,10 +936,14 @@
         <v>35</v>
       </c>
       <c r="J5" s="16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -948,11 +962,15 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J6" s="16">
+        <v>25</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -971,11 +989,15 @@
       <c r="H7" s="2">
         <v>32</v>
       </c>
-      <c r="J7" s="17">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7" s="16">
+        <v>68.75</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -994,11 +1016,15 @@
       <c r="H8" s="2">
         <v>23</v>
       </c>
-      <c r="J8" s="17">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8" s="16">
+        <v>18.75</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1017,11 +1043,15 @@
       <c r="H9" s="2">
         <v>33</v>
       </c>
-      <c r="J9" s="17">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1040,11 +1070,15 @@
       <c r="H10" s="2">
         <v>35</v>
       </c>
-      <c r="J10" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="16">
+        <v>25</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1063,11 +1097,15 @@
       <c r="H11" s="2">
         <v>33</v>
       </c>
-      <c r="J11" s="17">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="16">
+        <v>31.25</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1086,11 +1124,15 @@
       <c r="H12" s="2">
         <v>33</v>
       </c>
-      <c r="J12" s="17">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J12" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1109,11 +1151,15 @@
       <c r="H13" s="2">
         <v>33</v>
       </c>
-      <c r="J13" s="17">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J13" s="16">
+        <v>62.5</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1132,11 +1178,15 @@
       <c r="H14" s="2">
         <v>34</v>
       </c>
-      <c r="J14" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="16">
+        <v>25</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1155,11 +1205,15 @@
       <c r="H15" s="2">
         <v>32</v>
       </c>
-      <c r="J15" s="17">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="16">
+        <v>56.25</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1178,11 +1232,15 @@
       <c r="H16" s="2">
         <v>25</v>
       </c>
-      <c r="J16" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="16">
+        <v>50</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1201,11 +1259,15 @@
       <c r="H17" s="2">
         <v>35</v>
       </c>
-      <c r="J17" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="16">
+        <v>50</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1224,11 +1286,15 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="17">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="16">
+        <v>6.25</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1247,11 +1313,15 @@
       <c r="H19" s="2">
         <v>32</v>
       </c>
-      <c r="J19" s="17">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="16">
+        <v>93.75</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,11 +1340,15 @@
       <c r="H20" s="2">
         <v>33</v>
       </c>
-      <c r="J20" s="17">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="16">
+        <v>87.5</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1293,11 +1367,15 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="17">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="16">
+        <v>56.25</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1316,11 +1394,15 @@
       <c r="H22" s="2">
         <v>35</v>
       </c>
-      <c r="J22" s="17">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="16">
+        <v>93.75</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1339,11 +1421,15 @@
       <c r="H23" s="2">
         <v>34</v>
       </c>
-      <c r="J23" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="16">
+        <v>100</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1362,11 +1448,15 @@
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="17">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1385,11 +1475,15 @@
       <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="17">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="16">
+        <v>31.25</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1408,11 +1502,15 @@
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="17">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="16">
+        <v>18.75</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1431,11 +1529,15 @@
       <c r="H27" s="2">
         <v>35</v>
       </c>
-      <c r="J27" s="17">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1454,11 +1556,15 @@
       <c r="H28" s="2">
         <v>33</v>
       </c>
-      <c r="J28" s="17">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1477,11 +1583,15 @@
       <c r="H29" s="2">
         <v>32</v>
       </c>
-      <c r="J29" s="17">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="16">
+        <v>18.75</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1500,11 +1610,15 @@
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="17">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="16">
+        <v>31.25</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1523,11 +1637,15 @@
       <c r="H31" s="2">
         <v>32</v>
       </c>
-      <c r="J31" s="17">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1546,11 +1664,15 @@
       <c r="H32" s="2">
         <v>33</v>
       </c>
-      <c r="J32" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="16">
+        <v>50</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1569,11 +1691,15 @@
       <c r="H33" s="2">
         <v>33</v>
       </c>
-      <c r="J33" s="17">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="16">
+        <v>68.75</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1592,11 +1718,15 @@
       <c r="H34" s="2">
         <v>33</v>
       </c>
-      <c r="J34" s="17">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="16">
+        <v>93.75</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1615,11 +1745,15 @@
       <c r="H35" s="2">
         <v>33</v>
       </c>
-      <c r="J35" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="16">
+        <v>75</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1638,11 +1772,15 @@
       <c r="H36" s="2">
         <v>32</v>
       </c>
-      <c r="J36" s="17">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="16">
+        <v>81.25</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1661,11 +1799,15 @@
       <c r="H37" s="2">
         <v>35</v>
       </c>
-      <c r="J37" s="17">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="16">
+        <v>68.75</v>
+      </c>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1684,11 +1826,15 @@
       <c r="H38" s="2">
         <v>34</v>
       </c>
-      <c r="J38" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="16">
+        <v>75</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1707,11 +1853,15 @@
       <c r="H39" s="2">
         <v>0</v>
       </c>
-      <c r="J39" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="16">
+        <v>25</v>
+      </c>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1730,11 +1880,15 @@
       <c r="H40" s="2">
         <v>32</v>
       </c>
-      <c r="J40" s="17">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="16">
+        <v>31.25</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1753,11 +1907,15 @@
       <c r="H41" s="2">
         <v>33</v>
       </c>
-      <c r="J41" s="17">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="16">
+        <v>56.25</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1776,11 +1934,15 @@
       <c r="H42" s="2">
         <v>0</v>
       </c>
-      <c r="J42" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="16">
+        <v>50</v>
+      </c>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1799,11 +1961,15 @@
       <c r="H43" s="2">
         <v>35</v>
       </c>
-      <c r="J43" s="17">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="16">
+        <v>31.25</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1822,11 +1988,15 @@
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="J44" s="17">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1845,11 +2015,15 @@
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="J45" s="17">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="16">
+        <v>62.5</v>
+      </c>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1868,11 +2042,15 @@
       <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="J46" s="17">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="16">
+        <v>31.25</v>
+      </c>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1891,11 +2069,15 @@
       <c r="H47" s="2">
         <v>33</v>
       </c>
-      <c r="J47" s="17">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="16">
+        <v>62.5</v>
+      </c>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1914,11 +2096,15 @@
       <c r="H48" s="2">
         <v>32</v>
       </c>
-      <c r="J48" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="16">
+        <v>75</v>
+      </c>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+    </row>
+    <row r="49" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1937,12 +2123,16 @@
       <c r="H49" s="4">
         <v>0</v>
       </c>
-      <c r="J49" s="17">
-        <v>0.875</v>
+      <c r="J49" s="16">
+        <v>87.5</v>
       </c>
       <c r="N49" s="8"/>
-    </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+    </row>
+    <row r="50" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1961,12 +2151,16 @@
       <c r="H50" s="4">
         <v>35</v>
       </c>
-      <c r="J50" s="17">
-        <v>0.375</v>
+      <c r="J50" s="16">
+        <v>37.5</v>
       </c>
       <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1985,11 +2179,15 @@
       <c r="H51" s="2">
         <v>35</v>
       </c>
-      <c r="J51" s="17">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J51" s="16">
+        <v>68.75</v>
+      </c>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2008,11 +2206,15 @@
       <c r="H52" s="2">
         <v>26</v>
       </c>
-      <c r="J52" s="17">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J52" s="16">
+        <v>43.75</v>
+      </c>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2031,11 +2233,15 @@
       <c r="H53" s="2">
         <v>0</v>
       </c>
-      <c r="J53" s="17">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J53" s="16">
+        <v>18.75</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2054,11 +2260,15 @@
       <c r="H54" s="2">
         <v>35</v>
       </c>
-      <c r="J54" s="17">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J54" s="16">
+        <v>81.25</v>
+      </c>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2077,11 +2287,15 @@
       <c r="H55" s="2">
         <v>34</v>
       </c>
-      <c r="J55" s="17">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J55" s="16">
+        <v>56.25</v>
+      </c>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2100,11 +2314,15 @@
       <c r="H56" s="2">
         <v>33</v>
       </c>
-      <c r="J56" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J56" s="16">
+        <v>75</v>
+      </c>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2123,11 +2341,15 @@
       <c r="H57" s="2">
         <v>0</v>
       </c>
-      <c r="J57" s="17">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J57" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2146,11 +2368,15 @@
       <c r="H58" s="2">
         <v>25</v>
       </c>
-      <c r="J58" s="17">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J58" s="16">
+        <v>18.75</v>
+      </c>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2169,11 +2395,15 @@
       <c r="H59" s="2">
         <v>33</v>
       </c>
-      <c r="J59" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J59" s="16">
+        <v>75</v>
+      </c>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2192,11 +2422,15 @@
       <c r="H60" s="2">
         <v>0</v>
       </c>
-      <c r="J60" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J60" s="16">
+        <v>0</v>
+      </c>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2215,11 +2449,15 @@
       <c r="H61" s="2">
         <v>33</v>
       </c>
-      <c r="J61" s="17">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J61" s="16">
+        <v>43.75</v>
+      </c>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2238,11 +2476,15 @@
       <c r="H62" s="2">
         <v>31</v>
       </c>
-      <c r="J62" s="17">
-        <v>0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J62" s="16">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2261,11 +2503,15 @@
       <c r="H63" s="2">
         <v>0</v>
       </c>
-      <c r="J63" s="17">
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J63" s="16">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2284,11 +2530,15 @@
       <c r="H64" s="2">
         <v>0</v>
       </c>
-      <c r="J64" s="17">
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="16">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2307,11 +2557,15 @@
       <c r="H65" s="2">
         <v>0</v>
       </c>
-      <c r="J65" s="17">
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="16">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2330,11 +2584,15 @@
       <c r="H66" s="2">
         <v>0</v>
       </c>
-      <c r="J66" s="17">
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="16">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2353,11 +2611,15 @@
       <c r="H67" s="2">
         <v>0</v>
       </c>
-      <c r="J67" s="17">
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="16">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2376,11 +2638,15 @@
       <c r="H68" s="2">
         <v>30</v>
       </c>
-      <c r="J68" s="17">
-        <v>0.84615384615384615</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J68" s="16">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2399,11 +2665,15 @@
       <c r="H69" s="2">
         <v>31</v>
       </c>
-      <c r="J69" s="17">
-        <v>0.30769230769230771</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J69" s="16">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2422,11 +2692,15 @@
       <c r="H70" s="2">
         <v>0</v>
       </c>
-      <c r="J70" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2445,11 +2719,15 @@
       <c r="H71" s="2">
         <v>33</v>
       </c>
-      <c r="J71" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2468,11 +2746,15 @@
       <c r="H72" s="2">
         <v>0</v>
       </c>
-      <c r="J72" s="17">
-        <v>0.23076923076923078</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J72" s="16">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2491,11 +2773,15 @@
       <c r="H73" s="2">
         <v>24</v>
       </c>
-      <c r="J73" s="17">
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="16">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2514,11 +2800,15 @@
       <c r="H74" s="2">
         <v>33</v>
       </c>
-      <c r="J74" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J74" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2537,11 +2827,15 @@
       <c r="H75" s="2">
         <v>30</v>
       </c>
-      <c r="J75" s="17">
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J75" s="16">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2560,11 +2854,15 @@
       <c r="H76" s="2">
         <v>0</v>
       </c>
-      <c r="J76" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J76" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2583,11 +2881,15 @@
       <c r="H77" s="2">
         <v>0</v>
       </c>
-      <c r="J77" s="17">
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J77" s="16">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2606,11 +2908,15 @@
       <c r="H78" s="2">
         <v>0</v>
       </c>
-      <c r="J78" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J78" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2629,11 +2935,15 @@
       <c r="H79" s="2">
         <v>33</v>
       </c>
-      <c r="J79" s="17">
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J79" s="16">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2652,11 +2962,15 @@
       <c r="H80" s="2">
         <v>0</v>
       </c>
-      <c r="J80" s="17">
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J80" s="16">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2675,11 +2989,15 @@
       <c r="H81" s="2">
         <v>0</v>
       </c>
-      <c r="J81" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="16">
+        <v>0</v>
+      </c>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2698,11 +3016,15 @@
       <c r="H82" s="2">
         <v>27</v>
       </c>
-      <c r="J82" s="17">
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J82" s="16">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2721,11 +3043,15 @@
       <c r="H83" s="2">
         <v>0</v>
       </c>
-      <c r="J83" s="17">
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="16">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2744,11 +3070,15 @@
       <c r="H84" s="2">
         <v>28</v>
       </c>
-      <c r="J84" s="17">
-        <v>0.84615384615384615</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="16">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2767,11 +3097,15 @@
       <c r="H85" s="2">
         <v>0</v>
       </c>
-      <c r="J85" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J85" s="16">
+        <v>0</v>
+      </c>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2790,11 +3124,15 @@
       <c r="H86" s="2">
         <v>0</v>
       </c>
-      <c r="J86" s="17">
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="16">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2813,11 +3151,15 @@
       <c r="H87" s="2">
         <v>0</v>
       </c>
-      <c r="J87" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J87" s="16">
+        <v>0</v>
+      </c>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2836,11 +3178,15 @@
       <c r="H88" s="2">
         <v>0</v>
       </c>
-      <c r="J88" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2859,11 +3205,15 @@
       <c r="H89" s="2">
         <v>26</v>
       </c>
-      <c r="J89" s="17">
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J89" s="16">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2882,11 +3232,15 @@
       <c r="H90" s="2">
         <v>0</v>
       </c>
-      <c r="J90" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2905,11 +3259,15 @@
       <c r="H91" s="2">
         <v>0</v>
       </c>
-      <c r="J91" s="17">
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J91" s="16">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2928,11 +3286,15 @@
       <c r="H92" s="2">
         <v>28</v>
       </c>
-      <c r="J92" s="17">
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J92" s="16">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2951,11 +3313,15 @@
       <c r="H93" s="2">
         <v>33</v>
       </c>
-      <c r="J93" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J93" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2974,11 +3340,15 @@
       <c r="H94" s="2">
         <v>30</v>
       </c>
-      <c r="J94" s="17">
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J94" s="16">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2997,11 +3367,15 @@
       <c r="H95" s="2">
         <v>35</v>
       </c>
-      <c r="J95" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J95" s="16">
+        <v>100</v>
+      </c>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3020,11 +3394,15 @@
       <c r="H96" s="2">
         <v>0</v>
       </c>
-      <c r="J96" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J96" s="16">
+        <v>0</v>
+      </c>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3043,11 +3421,15 @@
       <c r="H97" s="2">
         <v>0</v>
       </c>
-      <c r="J97" s="17">
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="16">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3066,11 +3448,15 @@
       <c r="H98" s="2">
         <v>0</v>
       </c>
-      <c r="J98" s="17">
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J98" s="16">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3089,11 +3475,15 @@
       <c r="H99" s="2">
         <v>31</v>
       </c>
-      <c r="J99" s="17">
-        <v>0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J99" s="16">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3112,11 +3502,15 @@
       <c r="H100" s="2">
         <v>31</v>
       </c>
-      <c r="J100" s="17">
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J100" s="16">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3135,11 +3529,15 @@
       <c r="H101" s="2">
         <v>0</v>
       </c>
-      <c r="J101" s="17">
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J101" s="16">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3158,11 +3556,15 @@
       <c r="H102" s="2">
         <v>0</v>
       </c>
-      <c r="J102" s="17">
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J102" s="16">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3181,11 +3583,15 @@
       <c r="H103" s="2">
         <v>33</v>
       </c>
-      <c r="J103" s="17">
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J103" s="16">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3204,11 +3610,15 @@
       <c r="H104" s="2">
         <v>30</v>
       </c>
-      <c r="J104" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J104" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3227,11 +3637,15 @@
       <c r="H105" s="2">
         <v>25</v>
       </c>
-      <c r="J105" s="17">
-        <v>0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J105" s="16">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3250,11 +3664,15 @@
       <c r="H106" s="2">
         <v>0</v>
       </c>
-      <c r="J106" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J106" s="16">
+        <v>0</v>
+      </c>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3273,11 +3691,15 @@
       <c r="H107" s="2">
         <v>0</v>
       </c>
-      <c r="J107" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J107" s="16">
+        <v>0</v>
+      </c>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3296,11 +3718,15 @@
       <c r="H108" s="2">
         <v>31</v>
       </c>
-      <c r="J108" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J108" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3319,11 +3745,15 @@
       <c r="H109" s="2">
         <v>32</v>
       </c>
-      <c r="J109" s="17">
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J109" s="16">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3342,11 +3772,15 @@
       <c r="H110" s="2">
         <v>0</v>
       </c>
-      <c r="J110" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J110" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3365,11 +3799,15 @@
       <c r="H111" s="2">
         <v>0</v>
       </c>
-      <c r="J111" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J111" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3388,11 +3826,15 @@
       <c r="H112" s="2">
         <v>0</v>
       </c>
-      <c r="J112" s="17">
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J112" s="16">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3411,11 +3853,15 @@
       <c r="H113" s="2">
         <v>27</v>
       </c>
-      <c r="J113" s="17">
-        <v>0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J113" s="16">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3434,11 +3880,15 @@
       <c r="H114" s="2">
         <v>0</v>
       </c>
-      <c r="J114" s="17">
-        <v>0.30769230769230771</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J114" s="16">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3457,11 +3907,15 @@
       <c r="H115" s="2">
         <v>0</v>
       </c>
-      <c r="J115" s="17">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J115" s="16">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3480,11 +3934,15 @@
       <c r="H116" s="2">
         <v>31</v>
       </c>
-      <c r="J116" s="17">
-        <v>0.84615384615384615</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J116" s="16">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3503,11 +3961,15 @@
       <c r="H117" s="2">
         <v>28</v>
       </c>
-      <c r="J117" s="17">
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J117" s="16">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3526,11 +3988,15 @@
       <c r="H118" s="2">
         <v>26</v>
       </c>
-      <c r="J118" s="17">
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J118" s="16">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3549,24 +4015,18 @@
       <c r="H119" s="2">
         <v>33</v>
       </c>
-      <c r="J119" s="17">
-        <v>0.76923076923076927</v>
-      </c>
+      <c r="J119" s="16">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J61">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
-      <formula>0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J119">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
-      <formula>0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CNC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$J$3:$J$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$E$1:$E$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
   <si>
     <t>S.N</t>
   </si>
@@ -458,57 +458,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -786,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="O117" sqref="O117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,20 +769,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -873,13 +836,16 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>12.5</v>
       </c>
       <c r="N3" s="10"/>
@@ -901,13 +867,16 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>56.25</v>
       </c>
       <c r="N4" s="11"/>
@@ -929,13 +898,16 @@
       <c r="D5" s="2">
         <v>4</v>
       </c>
+      <c r="E5" s="2">
+        <v>13</v>
+      </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>35</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>50</v>
       </c>
       <c r="O5"/>
@@ -956,13 +928,16 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>25</v>
       </c>
       <c r="O6"/>
@@ -983,13 +958,16 @@
       <c r="D7" s="2">
         <v>11</v>
       </c>
+      <c r="E7" s="2">
+        <v>16</v>
+      </c>
       <c r="G7" s="2">
         <v>44</v>
       </c>
       <c r="H7" s="2">
         <v>32</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>68.75</v>
       </c>
       <c r="O7"/>
@@ -1010,13 +988,16 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>23</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>18.75</v>
       </c>
       <c r="O8"/>
@@ -1037,13 +1018,16 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="2">
         <v>33</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>37.5</v>
       </c>
       <c r="O9"/>
@@ -1064,13 +1048,16 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
+      <c r="E10" s="2">
+        <v>13</v>
+      </c>
       <c r="G10" s="2">
         <v>35</v>
       </c>
       <c r="H10" s="2">
         <v>35</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>25</v>
       </c>
       <c r="O10"/>
@@ -1091,13 +1078,16 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
       <c r="G11" s="2">
         <v>49</v>
       </c>
       <c r="H11" s="2">
         <v>33</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>31.25</v>
       </c>
       <c r="O11"/>
@@ -1118,13 +1108,16 @@
       <c r="D12" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E12" s="2">
+        <v>18</v>
+      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>33</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>37.5</v>
       </c>
       <c r="O12"/>
@@ -1145,13 +1138,16 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>33</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>62.5</v>
       </c>
       <c r="O13"/>
@@ -1172,13 +1168,16 @@
       <c r="D14" s="2">
         <v>7</v>
       </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
       <c r="G14" s="2">
         <v>38</v>
       </c>
       <c r="H14" s="2">
         <v>34</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>25</v>
       </c>
       <c r="O14"/>
@@ -1199,13 +1198,16 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>32</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>56.25</v>
       </c>
       <c r="O15"/>
@@ -1226,13 +1228,16 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
         <v>25</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>50</v>
       </c>
       <c r="O16"/>
@@ -1253,13 +1258,16 @@
       <c r="D17" s="2">
         <v>2</v>
       </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="2">
         <v>35</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>50</v>
       </c>
       <c r="O17"/>
@@ -1280,13 +1288,16 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
+      <c r="E18" s="2">
+        <v>12</v>
+      </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>6.25</v>
       </c>
       <c r="O18"/>
@@ -1307,13 +1318,16 @@
       <c r="D19" s="2">
         <v>5</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G19" s="2">
         <v>33</v>
       </c>
       <c r="H19" s="2">
         <v>32</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>93.75</v>
       </c>
       <c r="O19"/>
@@ -1334,13 +1348,16 @@
       <c r="D20" s="2">
         <v>15</v>
       </c>
+      <c r="E20" s="2">
+        <v>21</v>
+      </c>
       <c r="G20" s="2">
         <v>45</v>
       </c>
       <c r="H20" s="2">
         <v>33</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>87.5</v>
       </c>
       <c r="O20"/>
@@ -1361,13 +1378,16 @@
       <c r="D21" s="2">
         <v>3</v>
       </c>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>56.25</v>
       </c>
       <c r="O21"/>
@@ -1388,13 +1408,16 @@
       <c r="D22" s="2">
         <v>12</v>
       </c>
+      <c r="E22" s="2">
+        <v>15</v>
+      </c>
       <c r="G22" s="2">
         <v>38</v>
       </c>
       <c r="H22" s="2">
         <v>35</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <v>93.75</v>
       </c>
       <c r="O22"/>
@@ -1415,13 +1438,16 @@
       <c r="D23" s="2">
         <v>7</v>
       </c>
+      <c r="E23" s="2">
+        <v>14</v>
+      </c>
       <c r="G23" s="2">
         <v>44</v>
       </c>
       <c r="H23" s="2">
         <v>34</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>100</v>
       </c>
       <c r="O23"/>
@@ -1442,13 +1468,16 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <v>12.5</v>
       </c>
       <c r="O24"/>
@@ -1469,13 +1498,16 @@
       <c r="D25" s="2">
         <v>5</v>
       </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <v>31.25</v>
       </c>
       <c r="O25"/>
@@ -1496,13 +1528,16 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>18.75</v>
       </c>
       <c r="O26"/>
@@ -1523,13 +1558,16 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
         <v>35</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="15">
         <v>37.5</v>
       </c>
       <c r="O27"/>
@@ -1550,13 +1588,16 @@
       <c r="D28" s="2">
         <v>5</v>
       </c>
+      <c r="E28" s="2">
+        <v>13</v>
+      </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="2">
         <v>33</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="15">
         <v>37.5</v>
       </c>
       <c r="O28"/>
@@ -1577,13 +1618,16 @@
       <c r="D29" s="2">
         <v>3</v>
       </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29" s="2">
         <v>32</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="15">
         <v>18.75</v>
       </c>
       <c r="O29"/>
@@ -1604,13 +1648,16 @@
       <c r="D30" s="2">
         <v>2</v>
       </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="15">
         <v>31.25</v>
       </c>
       <c r="O30"/>
@@ -1631,13 +1678,16 @@
       <c r="D31" s="2">
         <v>8</v>
       </c>
+      <c r="E31" s="2">
+        <v>14</v>
+      </c>
       <c r="G31" s="2">
         <v>42</v>
       </c>
       <c r="H31" s="2">
         <v>32</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="15">
         <v>37.5</v>
       </c>
       <c r="O31"/>
@@ -1658,13 +1708,16 @@
       <c r="D32" s="2">
         <v>19</v>
       </c>
+      <c r="E32" s="2">
+        <v>17</v>
+      </c>
       <c r="G32" s="2">
         <v>49</v>
       </c>
       <c r="H32" s="2">
         <v>33</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="15">
         <v>50</v>
       </c>
       <c r="O32"/>
@@ -1685,13 +1738,16 @@
       <c r="D33" s="2">
         <v>4</v>
       </c>
+      <c r="E33" s="2">
+        <v>12</v>
+      </c>
       <c r="G33" s="2">
         <v>41</v>
       </c>
       <c r="H33" s="2">
         <v>33</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="15">
         <v>68.75</v>
       </c>
       <c r="O33"/>
@@ -1712,13 +1768,16 @@
       <c r="D34" s="2">
         <v>6</v>
       </c>
+      <c r="E34" s="2">
+        <v>19</v>
+      </c>
       <c r="G34" s="2">
         <v>42</v>
       </c>
       <c r="H34" s="2">
         <v>33</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <v>93.75</v>
       </c>
       <c r="O34"/>
@@ -1739,13 +1798,16 @@
       <c r="D35" s="2">
         <v>2</v>
       </c>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
       <c r="G35" s="2">
         <v>33</v>
       </c>
       <c r="H35" s="2">
         <v>33</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <v>75</v>
       </c>
       <c r="O35"/>
@@ -1766,13 +1828,16 @@
       <c r="D36" s="2">
         <v>7</v>
       </c>
+      <c r="E36" s="2">
+        <v>16</v>
+      </c>
       <c r="G36" s="2">
         <v>41</v>
       </c>
       <c r="H36" s="2">
         <v>32</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <v>81.25</v>
       </c>
       <c r="O36"/>
@@ -1793,13 +1858,16 @@
       <c r="D37" s="2">
         <v>12</v>
       </c>
+      <c r="E37" s="2">
+        <v>15</v>
+      </c>
       <c r="G37" s="2">
         <v>43</v>
       </c>
       <c r="H37" s="2">
         <v>35</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="15">
         <v>68.75</v>
       </c>
       <c r="O37"/>
@@ -1820,13 +1888,16 @@
       <c r="D38" s="2">
         <v>11</v>
       </c>
+      <c r="E38" s="2">
+        <v>15</v>
+      </c>
       <c r="G38" s="2">
         <v>48</v>
       </c>
       <c r="H38" s="2">
         <v>34</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="15">
         <v>75</v>
       </c>
       <c r="O38"/>
@@ -1847,13 +1918,16 @@
       <c r="D39" s="2">
         <v>4</v>
       </c>
+      <c r="E39" s="2">
+        <v>6</v>
+      </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="15">
         <v>25</v>
       </c>
       <c r="O39"/>
@@ -1874,13 +1948,16 @@
       <c r="D40" s="2">
         <v>4</v>
       </c>
+      <c r="E40" s="2">
+        <v>9</v>
+      </c>
       <c r="G40" s="2">
         <v>48</v>
       </c>
       <c r="H40" s="2">
         <v>32</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="15">
         <v>31.25</v>
       </c>
       <c r="O40"/>
@@ -1901,13 +1978,16 @@
       <c r="D41" s="2">
         <v>4</v>
       </c>
+      <c r="E41" s="2">
+        <v>13</v>
+      </c>
       <c r="G41" s="2">
         <v>41</v>
       </c>
       <c r="H41" s="2">
         <v>33</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="15">
         <v>56.25</v>
       </c>
       <c r="O41"/>
@@ -1928,13 +2008,16 @@
       <c r="D42" s="2">
         <v>2</v>
       </c>
+      <c r="E42" s="2">
+        <v>9</v>
+      </c>
       <c r="G42" s="2">
         <v>46</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="15">
         <v>50</v>
       </c>
       <c r="O42"/>
@@ -1955,13 +2038,16 @@
       <c r="D43" s="2">
         <v>6</v>
       </c>
+      <c r="E43" s="2">
+        <v>12</v>
+      </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
         <v>35</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="15">
         <v>31.25</v>
       </c>
       <c r="O43"/>
@@ -1982,13 +2068,16 @@
       <c r="D44" s="2">
         <v>2</v>
       </c>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
       <c r="G44" s="2">
         <v>0</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="15">
         <v>37.5</v>
       </c>
       <c r="O44"/>
@@ -2009,13 +2098,16 @@
       <c r="D45" s="2">
         <v>3</v>
       </c>
+      <c r="E45" s="2">
+        <v>6</v>
+      </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="15">
         <v>62.5</v>
       </c>
       <c r="O45"/>
@@ -2036,13 +2128,16 @@
       <c r="D46" s="2">
         <v>2</v>
       </c>
+      <c r="E46" s="2">
+        <v>6</v>
+      </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="15">
         <v>31.25</v>
       </c>
       <c r="O46"/>
@@ -2063,13 +2158,16 @@
       <c r="D47" s="2">
         <v>12</v>
       </c>
+      <c r="E47" s="2">
+        <v>12</v>
+      </c>
       <c r="G47" s="2">
         <v>34</v>
       </c>
       <c r="H47" s="2">
         <v>33</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="15">
         <v>62.5</v>
       </c>
       <c r="O47"/>
@@ -2090,13 +2188,16 @@
       <c r="D48" s="2">
         <v>9</v>
       </c>
+      <c r="E48" s="2">
+        <v>19</v>
+      </c>
       <c r="G48" s="2">
         <v>45</v>
       </c>
       <c r="H48" s="2">
         <v>32</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="15">
         <v>75</v>
       </c>
       <c r="O48"/>
@@ -2117,13 +2218,16 @@
       <c r="D49" s="4">
         <v>9</v>
       </c>
+      <c r="E49" s="4">
+        <v>10</v>
+      </c>
       <c r="G49" s="4">
         <v>50</v>
       </c>
       <c r="H49" s="4">
         <v>0</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="15">
         <v>87.5</v>
       </c>
       <c r="N49" s="8"/>
@@ -2145,13 +2249,16 @@
       <c r="D50" s="4">
         <v>4</v>
       </c>
+      <c r="E50" s="4">
+        <v>15</v>
+      </c>
       <c r="G50" s="4">
         <v>43</v>
       </c>
       <c r="H50" s="4">
         <v>35</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="15">
         <v>37.5</v>
       </c>
       <c r="N50" s="8"/>
@@ -2173,13 +2280,16 @@
       <c r="D51" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E51" s="2">
+        <v>20</v>
+      </c>
       <c r="G51" s="2">
         <v>49</v>
       </c>
       <c r="H51" s="2">
         <v>35</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="15">
         <v>68.75</v>
       </c>
       <c r="O51"/>
@@ -2200,13 +2310,16 @@
       <c r="D52" s="2">
         <v>5</v>
       </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
       <c r="G52" s="2">
         <v>43</v>
       </c>
       <c r="H52" s="2">
         <v>26</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="15">
         <v>43.75</v>
       </c>
       <c r="O52"/>
@@ -2227,13 +2340,16 @@
       <c r="D53" s="2">
         <v>2</v>
       </c>
+      <c r="E53" s="2">
+        <v>6</v>
+      </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="15">
         <v>18.75</v>
       </c>
       <c r="O53"/>
@@ -2254,13 +2370,16 @@
       <c r="D54" s="2">
         <v>3</v>
       </c>
+      <c r="E54" s="2">
+        <v>11</v>
+      </c>
       <c r="G54" s="2">
         <v>0</v>
       </c>
       <c r="H54" s="2">
         <v>35</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="15">
         <v>81.25</v>
       </c>
       <c r="O54"/>
@@ -2281,13 +2400,16 @@
       <c r="D55" s="2">
         <v>14</v>
       </c>
+      <c r="E55" s="2">
+        <v>17</v>
+      </c>
       <c r="G55" s="2">
         <v>42</v>
       </c>
       <c r="H55" s="2">
         <v>34</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="15">
         <v>56.25</v>
       </c>
       <c r="O55"/>
@@ -2308,13 +2430,16 @@
       <c r="D56" s="2">
         <v>14</v>
       </c>
+      <c r="E56" s="2">
+        <v>19</v>
+      </c>
       <c r="G56" s="2">
         <v>42</v>
       </c>
       <c r="H56" s="2">
         <v>33</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="15">
         <v>75</v>
       </c>
       <c r="O56"/>
@@ -2335,13 +2460,16 @@
       <c r="D57" s="2">
         <v>4</v>
       </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
       <c r="G57" s="2">
         <v>0</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="15">
         <v>37.5</v>
       </c>
       <c r="O57"/>
@@ -2362,13 +2490,16 @@
       <c r="D58" s="2">
         <v>2</v>
       </c>
+      <c r="E58" s="2">
+        <v>8</v>
+      </c>
       <c r="G58" s="2">
         <v>0</v>
       </c>
       <c r="H58" s="2">
         <v>25</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="15">
         <v>18.75</v>
       </c>
       <c r="O58"/>
@@ -2389,13 +2520,16 @@
       <c r="D59" s="2">
         <v>10</v>
       </c>
+      <c r="E59" s="2">
+        <v>22</v>
+      </c>
       <c r="G59" s="2">
         <v>43</v>
       </c>
       <c r="H59" s="2">
         <v>33</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="15">
         <v>75</v>
       </c>
       <c r="O59"/>
@@ -2416,13 +2550,16 @@
       <c r="D60" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E60" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="15">
         <v>0</v>
       </c>
       <c r="O60"/>
@@ -2443,13 +2580,16 @@
       <c r="D61" s="2">
         <v>3</v>
       </c>
+      <c r="E61" s="2">
+        <v>6</v>
+      </c>
       <c r="G61" s="2">
         <v>0</v>
       </c>
       <c r="H61" s="2">
         <v>33</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="15">
         <v>43.75</v>
       </c>
       <c r="O61"/>
@@ -2470,13 +2610,16 @@
       <c r="D62" s="2">
         <v>8</v>
       </c>
+      <c r="E62" s="2">
+        <v>16.5</v>
+      </c>
       <c r="G62" s="2">
         <v>0</v>
       </c>
       <c r="H62" s="2">
         <v>31</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="15">
         <v>76.923076923076934</v>
       </c>
       <c r="O62"/>
@@ -2497,13 +2640,16 @@
       <c r="D63" s="2">
         <v>3</v>
       </c>
+      <c r="E63" s="2">
+        <v>10</v>
+      </c>
       <c r="G63" s="2">
         <v>0</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="15">
         <v>38.461538461538467</v>
       </c>
       <c r="O63"/>
@@ -2524,13 +2670,16 @@
       <c r="D64" s="2">
         <v>0</v>
       </c>
+      <c r="E64" s="2">
+        <v>15</v>
+      </c>
       <c r="G64" s="2">
         <v>0</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="15">
         <v>53.846153846153847</v>
       </c>
       <c r="O64"/>
@@ -2551,13 +2700,16 @@
       <c r="D65" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E65" s="2">
+        <v>15</v>
+      </c>
       <c r="G65" s="2">
         <v>0</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J65" s="15">
         <v>53.846153846153847</v>
       </c>
       <c r="O65"/>
@@ -2578,13 +2730,16 @@
       <c r="D66" s="2">
         <v>11</v>
       </c>
+      <c r="E66" s="2">
+        <v>13</v>
+      </c>
       <c r="G66" s="2">
         <v>33</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J66" s="15">
         <v>53.846153846153847</v>
       </c>
       <c r="O66"/>
@@ -2605,13 +2760,16 @@
       <c r="D67" s="2">
         <v>1</v>
       </c>
+      <c r="E67" s="2">
+        <v>10</v>
+      </c>
       <c r="G67" s="2">
         <v>0</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J67" s="15">
         <v>46.153846153846153</v>
       </c>
       <c r="O67"/>
@@ -2632,13 +2790,16 @@
       <c r="D68" s="2">
         <v>10</v>
       </c>
+      <c r="E68" s="2">
+        <v>12</v>
+      </c>
       <c r="G68" s="2">
         <v>28</v>
       </c>
       <c r="H68" s="2">
         <v>30</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J68" s="15">
         <v>84.615384615384613</v>
       </c>
       <c r="O68"/>
@@ -2659,13 +2820,16 @@
       <c r="D69" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E69" s="2">
+        <v>14</v>
+      </c>
       <c r="G69" s="2">
         <v>36</v>
       </c>
       <c r="H69" s="2">
         <v>31</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="15">
         <v>30.76923076923077</v>
       </c>
       <c r="O69"/>
@@ -2686,13 +2850,16 @@
       <c r="D70" s="2">
         <v>7</v>
       </c>
+      <c r="E70" s="2">
+        <v>2</v>
+      </c>
       <c r="G70" s="2">
         <v>0</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O70"/>
@@ -2713,13 +2880,16 @@
       <c r="D71" s="2">
         <v>13</v>
       </c>
+      <c r="E71" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G71" s="2">
         <v>0</v>
       </c>
       <c r="H71" s="2">
         <v>33</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J71" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O71"/>
@@ -2740,13 +2910,16 @@
       <c r="D72" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E72" s="2">
+        <v>11</v>
+      </c>
       <c r="G72" s="2">
         <v>0</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="15">
         <v>23.076923076923077</v>
       </c>
       <c r="O72"/>
@@ -2767,13 +2940,16 @@
       <c r="D73" s="2">
         <v>9</v>
       </c>
+      <c r="E73" s="2">
+        <v>14</v>
+      </c>
       <c r="G73" s="2">
         <v>33</v>
       </c>
       <c r="H73" s="2">
         <v>24</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="15">
         <v>53.846153846153847</v>
       </c>
       <c r="O73"/>
@@ -2794,13 +2970,16 @@
       <c r="D74" s="2">
         <v>7</v>
       </c>
+      <c r="E74" s="2">
+        <v>9</v>
+      </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
       <c r="H74" s="2">
         <v>33</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J74" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O74"/>
@@ -2821,13 +3000,16 @@
       <c r="D75" s="2">
         <v>18</v>
       </c>
+      <c r="E75" s="2">
+        <v>23</v>
+      </c>
       <c r="G75" s="2">
         <v>41</v>
       </c>
       <c r="H75" s="2">
         <v>30</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J75" s="15">
         <v>53.846153846153847</v>
       </c>
       <c r="O75"/>
@@ -2848,13 +3030,16 @@
       <c r="D76" s="2">
         <v>4</v>
       </c>
+      <c r="E76" s="2">
+        <v>18</v>
+      </c>
       <c r="G76" s="2">
         <v>34</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J76" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O76"/>
@@ -2875,13 +3060,16 @@
       <c r="D77" s="2">
         <v>7</v>
       </c>
+      <c r="E77" s="2">
+        <v>13</v>
+      </c>
       <c r="G77" s="2">
         <v>37</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J77" s="15">
         <v>53.846153846153847</v>
       </c>
       <c r="O77"/>
@@ -2902,13 +3090,16 @@
       <c r="D78" s="2">
         <v>3</v>
       </c>
+      <c r="E78" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G78" s="2">
         <v>33</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J78" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O78"/>
@@ -2929,13 +3120,16 @@
       <c r="D79" s="2">
         <v>7</v>
       </c>
+      <c r="E79" s="2">
+        <v>9</v>
+      </c>
       <c r="G79" s="2">
         <v>0</v>
       </c>
       <c r="H79" s="2">
         <v>33</v>
       </c>
-      <c r="J79" s="16">
+      <c r="J79" s="15">
         <v>46.153846153846153</v>
       </c>
       <c r="O79"/>
@@ -2956,13 +3150,16 @@
       <c r="D80" s="2">
         <v>2</v>
       </c>
+      <c r="E80" s="2">
+        <v>8</v>
+      </c>
       <c r="G80" s="2">
         <v>0</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
       </c>
-      <c r="J80" s="16">
+      <c r="J80" s="15">
         <v>53.846153846153847</v>
       </c>
       <c r="O80"/>
@@ -2983,13 +3180,16 @@
       <c r="D81" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E81" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G81" s="2">
         <v>0</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J81" s="15">
         <v>0</v>
       </c>
       <c r="O81"/>
@@ -3010,13 +3210,16 @@
       <c r="D82" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E82" s="2">
+        <v>15</v>
+      </c>
       <c r="G82" s="2">
         <v>36</v>
       </c>
       <c r="H82" s="2">
         <v>27</v>
       </c>
-      <c r="J82" s="16">
+      <c r="J82" s="15">
         <v>53.846153846153847</v>
       </c>
       <c r="O82"/>
@@ -3037,13 +3240,16 @@
       <c r="D83" s="2">
         <v>7</v>
       </c>
+      <c r="E83" s="2">
+        <v>7</v>
+      </c>
       <c r="G83" s="2">
         <v>0</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J83" s="15">
         <v>38.461538461538467</v>
       </c>
       <c r="O83"/>
@@ -3064,13 +3270,16 @@
       <c r="D84" s="2">
         <v>18</v>
       </c>
+      <c r="E84" s="2">
+        <v>16</v>
+      </c>
       <c r="G84" s="2">
         <v>41</v>
       </c>
       <c r="H84" s="2">
         <v>28</v>
       </c>
-      <c r="J84" s="16">
+      <c r="J84" s="15">
         <v>84.615384615384613</v>
       </c>
       <c r="O84"/>
@@ -3091,13 +3300,16 @@
       <c r="D85" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E85" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J85" s="15">
         <v>0</v>
       </c>
       <c r="O85"/>
@@ -3118,13 +3330,16 @@
       <c r="D86" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E86" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G86" s="2">
         <v>33</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
       </c>
-      <c r="J86" s="16">
+      <c r="J86" s="15">
         <v>92.307692307692307</v>
       </c>
       <c r="O86"/>
@@ -3145,13 +3360,16 @@
       <c r="D87" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E87" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G87" s="2">
         <v>0</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J87" s="15">
         <v>0</v>
       </c>
       <c r="O87"/>
@@ -3172,13 +3390,16 @@
       <c r="D88" s="2">
         <v>5</v>
       </c>
+      <c r="E88" s="2">
+        <v>13</v>
+      </c>
       <c r="G88" s="2">
         <v>33</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
       </c>
-      <c r="J88" s="16">
+      <c r="J88" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O88"/>
@@ -3199,13 +3420,16 @@
       <c r="D89" s="2">
         <v>11</v>
       </c>
+      <c r="E89" s="2">
+        <v>15</v>
+      </c>
       <c r="G89" s="2">
         <v>0</v>
       </c>
       <c r="H89" s="2">
         <v>26</v>
       </c>
-      <c r="J89" s="16">
+      <c r="J89" s="15">
         <v>46.153846153846153</v>
       </c>
       <c r="O89"/>
@@ -3226,13 +3450,16 @@
       <c r="D90" s="2">
         <v>4</v>
       </c>
+      <c r="E90" s="2">
+        <v>16</v>
+      </c>
       <c r="G90" s="2">
         <v>0</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
       </c>
-      <c r="J90" s="16">
+      <c r="J90" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O90"/>
@@ -3253,13 +3480,16 @@
       <c r="D91" s="2">
         <v>3</v>
       </c>
+      <c r="E91" s="2">
+        <v>11</v>
+      </c>
       <c r="G91" s="2">
         <v>0</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
       </c>
-      <c r="J91" s="16">
+      <c r="J91" s="15">
         <v>38.461538461538467</v>
       </c>
       <c r="O91"/>
@@ -3280,13 +3510,16 @@
       <c r="D92" s="2">
         <v>11</v>
       </c>
+      <c r="E92" s="2">
+        <v>17</v>
+      </c>
       <c r="G92" s="2">
         <v>33</v>
       </c>
       <c r="H92" s="2">
         <v>28</v>
       </c>
-      <c r="J92" s="16">
+      <c r="J92" s="15">
         <v>92.307692307692307</v>
       </c>
       <c r="O92"/>
@@ -3307,13 +3540,16 @@
       <c r="D93" s="2">
         <v>8</v>
       </c>
+      <c r="E93" s="2">
+        <v>4</v>
+      </c>
       <c r="G93" s="2">
         <v>0</v>
       </c>
       <c r="H93" s="2">
         <v>33</v>
       </c>
-      <c r="J93" s="16">
+      <c r="J93" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O93"/>
@@ -3334,13 +3570,16 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
+      <c r="E94" s="2">
+        <v>17</v>
+      </c>
       <c r="G94" s="2">
         <v>0</v>
       </c>
       <c r="H94" s="2">
         <v>30</v>
       </c>
-      <c r="J94" s="16">
+      <c r="J94" s="15">
         <v>46.153846153846153</v>
       </c>
       <c r="O94"/>
@@ -3361,13 +3600,16 @@
       <c r="D95" s="2">
         <v>7</v>
       </c>
+      <c r="E95" s="2">
+        <v>9</v>
+      </c>
       <c r="G95" s="2">
         <v>41</v>
       </c>
       <c r="H95" s="2">
         <v>35</v>
       </c>
-      <c r="J95" s="16">
+      <c r="J95" s="15">
         <v>100</v>
       </c>
       <c r="O95"/>
@@ -3388,13 +3630,16 @@
       <c r="D96" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E96" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G96" s="2">
         <v>0</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
       </c>
-      <c r="J96" s="16">
+      <c r="J96" s="15">
         <v>0</v>
       </c>
       <c r="O96"/>
@@ -3415,13 +3660,16 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
+      <c r="E97" s="2">
+        <v>10</v>
+      </c>
       <c r="G97" s="2">
         <v>0</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
       </c>
-      <c r="J97" s="16">
+      <c r="J97" s="15">
         <v>38.461538461538467</v>
       </c>
       <c r="O97"/>
@@ -3442,13 +3690,16 @@
       <c r="D98" s="2">
         <v>4</v>
       </c>
+      <c r="E98" s="2">
+        <v>15</v>
+      </c>
       <c r="G98" s="2">
         <v>37</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
       </c>
-      <c r="J98" s="16">
+      <c r="J98" s="15">
         <v>92.307692307692307</v>
       </c>
       <c r="O98"/>
@@ -3469,13 +3720,16 @@
       <c r="D99" s="2">
         <v>10</v>
       </c>
+      <c r="E99" s="2">
+        <v>12</v>
+      </c>
       <c r="G99" s="2">
         <v>43</v>
       </c>
       <c r="H99" s="2">
         <v>31</v>
       </c>
-      <c r="J99" s="16">
+      <c r="J99" s="15">
         <v>76.923076923076934</v>
       </c>
       <c r="O99"/>
@@ -3496,13 +3750,16 @@
       <c r="D100" s="2">
         <v>2</v>
       </c>
+      <c r="E100" s="2">
+        <v>16</v>
+      </c>
       <c r="G100" s="2">
         <v>0</v>
       </c>
       <c r="H100" s="2">
         <v>31</v>
       </c>
-      <c r="J100" s="16">
+      <c r="J100" s="15">
         <v>38.461538461538467</v>
       </c>
       <c r="O100"/>
@@ -3523,13 +3780,16 @@
       <c r="D101" s="2">
         <v>3</v>
       </c>
+      <c r="E101" s="2">
+        <v>9</v>
+      </c>
       <c r="G101" s="2">
         <v>0</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
       </c>
-      <c r="J101" s="16">
+      <c r="J101" s="15">
         <v>38.461538461538467</v>
       </c>
       <c r="O101"/>
@@ -3550,13 +3810,16 @@
       <c r="D102" s="2">
         <v>6</v>
       </c>
+      <c r="E102" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G102" s="2">
         <v>0</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
       </c>
-      <c r="J102" s="16">
+      <c r="J102" s="15">
         <v>61.53846153846154</v>
       </c>
       <c r="O102"/>
@@ -3577,13 +3840,16 @@
       <c r="D103" s="2">
         <v>13</v>
       </c>
+      <c r="E103" s="2">
+        <v>11</v>
+      </c>
       <c r="G103" s="2">
         <v>41</v>
       </c>
       <c r="H103" s="2">
         <v>33</v>
       </c>
-      <c r="J103" s="16">
+      <c r="J103" s="15">
         <v>61.53846153846154</v>
       </c>
       <c r="O103"/>
@@ -3604,13 +3870,16 @@
       <c r="D104" s="2">
         <v>21</v>
       </c>
+      <c r="E104" s="2">
+        <v>20</v>
+      </c>
       <c r="G104" s="2">
         <v>40</v>
       </c>
       <c r="H104" s="2">
         <v>30</v>
       </c>
-      <c r="J104" s="16">
+      <c r="J104" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O104"/>
@@ -3631,13 +3900,16 @@
       <c r="D105" s="2">
         <v>15</v>
       </c>
+      <c r="E105" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G105" s="2">
         <v>26</v>
       </c>
       <c r="H105" s="2">
         <v>25</v>
       </c>
-      <c r="J105" s="16">
+      <c r="J105" s="15">
         <v>76.923076923076934</v>
       </c>
       <c r="O105"/>
@@ -3658,13 +3930,16 @@
       <c r="D106" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E106" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G106" s="2">
         <v>0</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
       </c>
-      <c r="J106" s="16">
+      <c r="J106" s="15">
         <v>0</v>
       </c>
       <c r="O106"/>
@@ -3685,13 +3960,16 @@
       <c r="D107" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E107" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G107" s="2">
         <v>0</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
       </c>
-      <c r="J107" s="16">
+      <c r="J107" s="15">
         <v>0</v>
       </c>
       <c r="O107"/>
@@ -3712,13 +3990,16 @@
       <c r="D108" s="2">
         <v>15</v>
       </c>
+      <c r="E108" s="2">
+        <v>12</v>
+      </c>
       <c r="G108" s="2">
         <v>33</v>
       </c>
       <c r="H108" s="2">
         <v>31</v>
       </c>
-      <c r="J108" s="16">
+      <c r="J108" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O108"/>
@@ -3739,13 +4020,16 @@
       <c r="D109" s="2">
         <v>19</v>
       </c>
+      <c r="E109" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G109" s="2">
         <v>40</v>
       </c>
       <c r="H109" s="2">
         <v>32</v>
       </c>
-      <c r="J109" s="16">
+      <c r="J109" s="15">
         <v>61.53846153846154</v>
       </c>
       <c r="O109"/>
@@ -3766,13 +4050,16 @@
       <c r="D110" s="2">
         <v>2</v>
       </c>
+      <c r="E110" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G110" s="2">
         <v>0</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
       </c>
-      <c r="J110" s="16">
+      <c r="J110" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O110"/>
@@ -3793,13 +4080,16 @@
       <c r="D111" s="2">
         <v>9</v>
       </c>
+      <c r="E111" s="2">
+        <v>11</v>
+      </c>
       <c r="G111" s="2">
         <v>0</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
       </c>
-      <c r="J111" s="16">
+      <c r="J111" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O111"/>
@@ -3820,13 +4110,16 @@
       <c r="D112" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E112" s="2">
+        <v>11</v>
+      </c>
       <c r="G112" s="2">
         <v>0</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
       </c>
-      <c r="J112" s="16">
+      <c r="J112" s="15">
         <v>38.461538461538467</v>
       </c>
       <c r="O112"/>
@@ -3847,13 +4140,16 @@
       <c r="D113" s="2">
         <v>12</v>
       </c>
+      <c r="E113" s="2">
+        <v>14</v>
+      </c>
       <c r="G113" s="2">
         <v>0</v>
       </c>
       <c r="H113" s="2">
         <v>27</v>
       </c>
-      <c r="J113" s="16">
+      <c r="J113" s="15">
         <v>76.923076923076934</v>
       </c>
       <c r="O113"/>
@@ -3874,13 +4170,16 @@
       <c r="D114" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E114" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G114" s="2">
         <v>0</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
       </c>
-      <c r="J114" s="16">
+      <c r="J114" s="15">
         <v>30.76923076923077</v>
       </c>
       <c r="O114"/>
@@ -3901,13 +4200,16 @@
       <c r="D115" s="2">
         <v>4</v>
       </c>
+      <c r="E115" s="2">
+        <v>6</v>
+      </c>
       <c r="G115" s="2">
         <v>0</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
       </c>
-      <c r="J115" s="16">
+      <c r="J115" s="15">
         <v>69.230769230769226</v>
       </c>
       <c r="O115"/>
@@ -3928,13 +4230,16 @@
       <c r="D116" s="2">
         <v>16</v>
       </c>
+      <c r="E116" s="2">
+        <v>22</v>
+      </c>
       <c r="G116" s="2">
         <v>41</v>
       </c>
       <c r="H116" s="2">
         <v>31</v>
       </c>
-      <c r="J116" s="16">
+      <c r="J116" s="15">
         <v>84.615384615384613</v>
       </c>
       <c r="O116"/>
@@ -3955,13 +4260,16 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
+      <c r="E117" s="2">
+        <v>12</v>
+      </c>
       <c r="G117" s="2">
         <v>0</v>
       </c>
       <c r="H117" s="2">
         <v>28</v>
       </c>
-      <c r="J117" s="16">
+      <c r="J117" s="15">
         <v>46.153846153846153</v>
       </c>
       <c r="O117"/>
@@ -3982,13 +4290,16 @@
       <c r="D118" s="2">
         <v>9</v>
       </c>
+      <c r="E118" s="2">
+        <v>17</v>
+      </c>
       <c r="G118" s="2">
         <v>0</v>
       </c>
       <c r="H118" s="2">
         <v>26</v>
       </c>
-      <c r="J118" s="16">
+      <c r="J118" s="15">
         <v>53.846153846153847</v>
       </c>
       <c r="O118"/>
@@ -4009,13 +4320,16 @@
       <c r="D119" s="2">
         <v>22</v>
       </c>
+      <c r="E119" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G119" s="2">
         <v>41</v>
       </c>
       <c r="H119" s="2">
         <v>33</v>
       </c>
-      <c r="J119" s="16">
+      <c r="J119" s="15">
         <v>76.923076923076934</v>
       </c>
       <c r="O119"/>

--- a/Upload/5th sem.xlsx
+++ b/Upload/5th sem.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CNC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$E$1:$E$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CNC!$J$1:$J$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="O117" sqref="O117"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,7 +2015,7 @@
         <v>46</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J42" s="15">
         <v>50</v>
@@ -2225,7 +2225,7 @@
         <v>50</v>
       </c>
       <c r="H49" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J49" s="15">
         <v>87.5</v>
